--- a/lib/parse-notes/cleaned-7th-team-monies-owed.xlsx
+++ b/lib/parse-notes/cleaned-7th-team-monies-owed.xlsx
@@ -184,7 +184,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Court fee £5.25</t>
+18/12/2014 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -199,7 +199,7 @@
           <t xml:space="preserve">Imported Author:
 19/3/2015 C fee £5.25
 19/3/2015 C fee £1.50
-19/3/2015 Cash £1
+19/3/2015 Cash -£1
 </t>
         </r>
       </text>
@@ -219,6 +219,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="W6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/4/2015 carried £4.50</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y6" authorId="0">
       <text>
         <r>
@@ -228,8 +241,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-2/4/2015 carried £4.50
-9/4/2015 carried £7
+9/4/2015 carried £11.50
 23/4/2015 c fee £3.75</t>
         </r>
       </text>
@@ -263,19 +275,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-From court booking fee</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="CY7" authorId="0">
       <text>
         <r>
@@ -350,7 +349,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Paid £10.50 cash</t>
+29/1/2015 cash -£10</t>
         </r>
       </text>
     </comment>
@@ -364,7 +363,7 @@
           </rPr>
           <t>Imported Author:
 5/2/2015 C fee £5.25
-5/2/2015 Cash £5.25</t>
+5/2/2015 Cash -£5.25</t>
         </r>
       </text>
     </comment>
@@ -378,20 +377,7 @@
           </rPr>
           <t>Imported Author:
 13/2/2015 C fee £5.25
-13/2/2015 Cash £5.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-He says he's paid me</t>
+13/2/2015 Cash -£5.25</t>
         </r>
       </text>
     </comment>
@@ -432,7 +418,7 @@
           </rPr>
           <t>Imported Author:
 2/4/2015 c fee £5.25
-2/4/2015 cash £12</t>
+2/4/2015 cash -£12</t>
         </r>
       </text>
     </comment>
@@ -447,7 +433,7 @@
           <t>Imported Author:
 2/4/2015 carried -£2.45
 9/4/2015 c fee £7
-9/4/2015 cash £5</t>
+9/4/2015 cash -£5</t>
         </r>
       </text>
     </comment>
@@ -477,7 +463,7 @@
           <t>Imported Author:
 23/4/2015 carried -£1.70
 26/4/2015 c fee £5.25
-26/4/2015 cash £5.30</t>
+26/4/2015 cash -£5.30</t>
         </r>
       </text>
     </comment>
@@ -721,9 +707,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Court booking fee £18 
-paid 28/12/2014
-Balls provided £3</t>
+28/12/2014 booking £18
+28/12/2014 balls -£3</t>
         </r>
       </text>
     </comment>
@@ -736,7 +721,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Carried forward from 28/12/2014 £17.50
+28/12/2014 carried £17.50
 8/1/2015 c fee £5.25</t>
         </r>
       </text>
@@ -1019,16 +1004,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-From court booking fee</t>
+    <comment ref="DI10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+15/12/2016 carried £11.09
+23/2/2017 c fee £7.17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+23/2/2017 carried £18.26
+2/3/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DK10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/3/2017 carried £23.64
+9/3/2017 c fee £5.38</t>
         </r>
       </text>
     </comment>
@@ -1041,10 +1055,10 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t xml:space="preserve">Imported Author:
-Booking fee £18 27/11/2014
-Court fee £5.25 4/12/2014
-Court fee £7 11/12/2014
-Repaid £5.75 11/12/2014
+27/11/2014 booking -£18
+4/12/2014 c fee £5.25
+11/12/2014 c fee £7
+11/12/2014 paid £5.75
 </t>
         </r>
       </text>
@@ -1058,9 +1072,9 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-£18 booking fee 4/12/2014
-£5.25 court fee 18/12/2014
-£12.75 repaid 22/12/2014</t>
+4/12/2014 booking -£18
+18/12/2014 c fee £5.25
+22/12/2014 paid £12.75</t>
         </r>
       </text>
     </comment>
@@ -1073,10 +1087,10 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Booking fee for 29/1/2015 £18
-Court fee for 22/12/2014 £7.75
-Court fee for 28/12/2014 £3.50
-Court fee for 15/1/2015 £5.25</t>
+29/1/2015 booking -£18
+22/12/2014 c fee £7.75
+28/12/2014 c fee £3.50
+15/1/2015 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -1723,6 +1737,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DK11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+9/2/2017 carried £18.66
+9/3/2017 c fee£5.38</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E12" authorId="0">
       <text>
         <r>
@@ -1732,9 +1760,9 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
--£18 for court 20/11/2014
-£5.25 court fee 4/11/2014
--£3 for balls 4/11/2014</t>
+20/11/2014 booking -£18
+4/11/2014 c fee £5.25
+4/11/2014 balls -£3</t>
         </r>
       </text>
     </comment>
@@ -1762,12 +1790,11 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Court fee £5.25
-Provided balls £6
-Booking fee for 22/1/2015 £18
-Court fee for 22/12/2014 £1.75
-Refund from Sarah £9
-12/2/2015 Trans £51.25</t>
+15/01/2015 c fee £5.25
+15/01/2015 balls -£6
+22/1/2015 booking -£18
+22/12/2014 c fee £1.75
+12/2/2015 Trans -£51.25</t>
         </r>
       </text>
     </comment>
@@ -1780,10 +1807,10 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Booking fee for 13/2/2015 -£18
+13/2/2015 booking -£18
 29/1/2015 C fee £5.25
 29/1/2015 Balls -£3
-12/2/2015 Trans £51.25</t>
+12/2/2015 Trans -£51.25</t>
         </r>
       </text>
     </comment>
@@ -1852,7 +1879,7 @@
 19/3/2015 Carried -£22.75
 26/3/2015 Booking -£18
 26/3/2015 C fee £5.25
-26/3/2015 Balls £3
+26/3/2015 Balls -£3
 31/3/2015 Paid £38.50</t>
         </r>
       </text>
@@ -1868,8 +1895,8 @@
           <t>Imported Author:
 9/4/2015 c fee £5.25
 9/4/2015 balls -£3
-23/4/2015 booking £12
-28/4/2015 booking £32</t>
+23/4/2015 booking -£12
+28/4/2015 booking -£32</t>
         </r>
       </text>
     </comment>
@@ -1949,7 +1976,7 @@
 7/5/2015 booking -£24
 7/5/2015 balls -£6
 7/5/2015 c fee £3.75
-19/5/2015 transfer £66.50</t>
+19/5/2015 transfer -£66.50</t>
         </r>
       </text>
     </comment>
@@ -2944,7 +2971,6 @@
 2/2/2017 c fee £5.38
 2/2/2017 balls -£3.50
 2/2/2017 transfer £100
-16/2/2017 booking -£18
 </t>
         </r>
       </text>
@@ -2958,8 +2984,67 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-2/2/2017 carried -£116.81
+2/2/2017 carried -£100.81
 23/2/2017 booking -£18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DH12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+9/2/2017 carried -£118.81
+2/3/2017 booking -£18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 carried -£136.81
+23/2/2017 c fee £7.17
+23/2/2017 balls -£3.50
+9/3/2017 booking -£18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/3/2017 booking -£18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DK12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/3/2017 carried -£167.26
+9/3/2017 c fee £5.38
+9/3/2017 balls -£3.50
+12/3/2017 transfer £70</t>
         </r>
       </text>
     </comment>
@@ -3512,6 +3597,33 @@
         </r>
       </text>
     </comment>
+    <comment ref="DJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/3/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/3/2017 carried £5.38
+9/3/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V16" authorId="0">
       <text>
         <r>
@@ -4027,7 +4139,51 @@
           </rPr>
           <t>Imported Author:
 2/2/2017 carried £19.73
-9/2/2017 c fee £5.38</t>
+9/2/2017 c fee £5.38
+9/2/2017 paid £25.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DH16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 carried £5.38
+23/2/2017 c fee £7.17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DK16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+23/2/2017 carried £12.55
+9/3/2017 c fee £5.38
+11/3/2017 cash -£5.00
+12/3/2017 cash £38.04</t>
         </r>
       </text>
     </comment>
@@ -4262,6 +4418,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="DJ17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+5/1/2017 carried £5.09
+2/3/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M18" authorId="0">
       <text>
         <r>
@@ -4271,7 +4441,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Provided balls £3</t>
+29/1/2015 balls -£3
+29/1/2015 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -4557,6 +4728,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="DJ18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+9/2/2017 carried £16.61
+2/3/2017 c fee £5.38
+12/3/2017 paid £31.99</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H19" authorId="0">
       <text>
         <r>
@@ -4581,7 +4767,7 @@
           <t xml:space="preserve">Imported Author:
 16/4/2015 carried £4.50
 30/4/2015 c fee £3.75
-28/5/2015 b trans £6.37
+28/5/2015 b trans -£6.37
 </t>
         </r>
       </text>
@@ -4655,7 +4841,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-9/2/2017 c fee £5.38</t>
+9/2/2017 c fee £5.38
+9/2/107 paid -£5.38</t>
         </r>
       </text>
     </comment>
@@ -4983,7 +5170,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-1/12/2016 carried £5.38</t>
+1/12/2016 c fee £5.38</t>
         </r>
       </text>
     </comment>
@@ -5028,6 +5215,47 @@
 19/1/2017 carried £10.47
 26/1/2017 c fee £5.38
 2/2/2017 paid £15.85</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DH21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 carried £5.38
+23/2/2017 c fee £7.17</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DJ21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+23/3/2017 carried £12.55
+2/3/2017 c fee £5.38</t>
         </r>
       </text>
     </comment>
@@ -5115,7 +5343,7 @@
           </rPr>
           <t>Imported Author:
 16/4/2015 c fee £3.75
-16/4/2015 cash £3.75</t>
+16/4/2015 cash -£3.75</t>
         </r>
       </text>
     </comment>
@@ -5129,7 +5357,7 @@
           </rPr>
           <t>Imported Author:
 30/4/2015 c fee £5.25
-30/4/2015 cash £5</t>
+30/4/2015 cash -£5</t>
         </r>
       </text>
     </comment>
@@ -5305,19 +5533,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-£5.25 paid 11/12/2014</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L25" authorId="0">
       <text>
         <r>
@@ -5327,7 +5542,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t xml:space="preserve">Imported Author:
-£30 cash on 22/1/2015
+22/1/2015 cash -£30
 11/12/2014 C fee £1.75
 22/12/2014 C fee £7.75 
 28/12/2014 C fee £3.5
@@ -5346,7 +5561,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Paid £10 cash</t>
+29/01/2015 cash -£10
+29/01/2015 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -5359,7 +5575,6 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-22/1/2015 carried £4.75
 22/1/2015 carried £4.75
 26/2/2015 c fee £5.25
 26/2/2015 c fee £1.50</t>
@@ -5403,7 +5618,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-2/4/2015 carried £10.75
+2/4/2015 carried -£10.75
 16/4/2015 c fee £3.75</t>
         </r>
       </text>
@@ -6970,6 +7185,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="DH31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+9/2/2017 carried £33.99
+16/2/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+16/2/2017 carried £39.37
+23/2/2017 c fee £7.17</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BU32" authorId="0">
       <text>
         <r>
@@ -7190,8 +7433,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t xml:space="preserve">Imported Author:
-£20 Cash
-£5.25 court booking fee 27/11/2014
+27/11/2014 cash -£20
+27/11/2014 c fee £5.25
 </t>
         </r>
       </text>
@@ -7205,8 +7448,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t xml:space="preserve">Imported Author:
-Cash carried forward from 27/11/2014 £14.25
-£5.25 court booking fee 22/11/2014
+27/11/2014 carried -£14.25
+22/11/2014 c fee -£5.25
 </t>
         </r>
       </text>
@@ -7220,8 +7463,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Cash carried forward from 22/12/2014 £6.50
-Court booking fee £5.25</t>
+22/12/2014 carried -£6.50
+8/1/2015 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -7510,6 +7753,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="DJ35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+2/3/2017 c fee £5.38</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AP36" authorId="0">
       <text>
         <r>
@@ -7547,9 +7803,9 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-Mulled wine £20
-Court fee £7.75
-Court fee £3.50 from 7/11/2014</t>
+7/11/2014 carried £3.50
+22/12/2014 wine -£20
+22/12/2014 c fee £7.75</t>
         </r>
       </text>
     </comment>
@@ -7561,9 +7817,9 @@
             <color indexed="8"/>
             <rFont val="Helvetica"/>
           </rPr>
-          <t xml:space="preserve">Imported Author:
-Carried forward from 22/12/2014 £8.75
-5/3/2015 forward £3.50 </t>
+          <t>Imported Author:
+22/12/2014 carried £8.75
+15/1/2015 c fee £5.25</t>
         </r>
       </text>
     </comment>
@@ -7576,11 +7832,11 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-26/2/2015 strings £1
+15/1/2015 carried £3.50
+26/2/2015 strings -£1
 5/3/2015 c fee £5.25
 5/3/2015 c fee £1.50
-5/3/2015 cash £10
-15/1/2015 owed £3.50</t>
+5/3/2015 cash -£10</t>
         </r>
       </text>
     </comment>
@@ -7716,29 +7972,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-Cash</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica"/>
-          </rPr>
-          <t>Imported Author:
-Cash</t>
+    <comment ref="DK37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+15/12/2017 carried £10.35
+9/3/2017 c fee £5.38</t>
         </r>
       </text>
     </comment>
@@ -7751,12 +7995,12 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-£20 cash paid 22/01/2015
+22/01/2015 cash -£20
 11/12/2014 C fee £7.00
 15/01/2015 C fee £5.25
 22/01/2015 C fee £7.00
-28/01/2015 C fee £4.50 (ladder)
-13/2/2015 Cash paid £20</t>
+28/01/2015 ladder £4.50
+13/2/2015 Cash -£20</t>
         </r>
       </text>
     </comment>
@@ -7769,7 +8013,7 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-13/2/2015 Cash paid £20</t>
+13/2/2015 Cash -£20</t>
         </r>
       </text>
     </comment>
@@ -7782,7 +8026,8 @@
             <rFont val="Helvetica"/>
           </rPr>
           <t>Imported Author:
-12/12/2015 Carried -£4 19/3/2015 C fee £5.25
+12/12/2015 Carried -£4
+19/3/2015 C fee £5.25
 19/3/2015 Cash -£5.00</t>
         </r>
       </text>
@@ -8431,7 +8676,22 @@
           </rPr>
           <t>Imported Author:
 26/1/2017 carried £21.71
-9/2/2017 c fee £5.38</t>
+9/2/2017 c fee £5.38
+9/2/2017 cash -£25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DK38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica"/>
+          </rPr>
+          <t>Imported Author:
+9/2/2017 carried £2.09
+9/3/2017 c fee £5.38</t>
         </r>
       </text>
     </comment>
@@ -8522,7 +8782,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Alexis</t>
   </si>
@@ -8534,6 +8794,9 @@
   </si>
   <si>
     <t>Chris Eck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>David</t>
@@ -8657,8 +8920,8 @@
   <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="60" formatCode="[$£-809]#,##0.00"/>
-    <numFmt numFmtId="61" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="60" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="61" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -8729,10 +8992,10 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -8741,13 +9004,13 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="61" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -9848,7 +10111,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DG42"/>
+  <dimension ref="A1:DK42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -9880,8 +10143,8 @@
     <col min="24" max="24" width="10.3516" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.3516" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.3516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5" style="1" customWidth="1"/>
     <col min="29" max="29" width="10.3516" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.3516" style="1" customWidth="1"/>
     <col min="31" max="31" width="10.3516" style="1" customWidth="1"/>
@@ -9965,7 +10228,11 @@
     <col min="109" max="109" width="10.3516" style="1" customWidth="1"/>
     <col min="110" max="110" width="10.3516" style="1" customWidth="1"/>
     <col min="111" max="111" width="10.3516" style="1" customWidth="1"/>
-    <col min="112" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="112" max="112" width="10.5" style="1" customWidth="1"/>
+    <col min="113" max="113" width="10.5" style="1" customWidth="1"/>
+    <col min="114" max="114" width="10.5" style="1" customWidth="1"/>
+    <col min="115" max="115" width="10.3516" style="1" customWidth="1"/>
+    <col min="116" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -10210,7 +10477,7 @@
       <c r="CC1" s="3">
         <v>42544</v>
       </c>
-      <c r="CD1" s="4">
+      <c r="CD1" s="3">
         <v>42551</v>
       </c>
       <c r="CE1" s="3">
@@ -10299,6 +10566,18 @@
       </c>
       <c r="DG1" s="3">
         <v>42775</v>
+      </c>
+      <c r="DH1" s="3">
+        <v>42782</v>
+      </c>
+      <c r="DI1" s="3">
+        <v>42789</v>
+      </c>
+      <c r="DJ1" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DK1" s="4">
+        <v>42803</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
@@ -10418,6 +10697,10 @@
       <c r="DE2" s="2"/>
       <c r="DF2" s="2"/>
       <c r="DG2" s="2"/>
+      <c r="DH2" s="2"/>
+      <c r="DI2" s="2"/>
+      <c r="DJ2" s="2"/>
+      <c r="DK2" s="2"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="5">
@@ -10436,7 +10719,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -10459,11 +10742,11 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
-      <c r="AL3" s="3"/>
+      <c r="AL3" s="8"/>
       <c r="AM3" s="6"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="2"/>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="8"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
@@ -10473,7 +10756,7 @@
       <c r="AW3" s="7"/>
       <c r="AX3" s="7"/>
       <c r="AY3" s="2"/>
-      <c r="AZ3" s="3"/>
+      <c r="AZ3" s="8"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="2"/>
@@ -10487,7 +10770,7 @@
       <c r="BK3" s="7"/>
       <c r="BL3" s="7"/>
       <c r="BM3" s="7"/>
-      <c r="BN3" s="3"/>
+      <c r="BN3" s="8"/>
       <c r="BO3" s="7"/>
       <c r="BP3" s="7"/>
       <c r="BQ3" s="7"/>
@@ -10509,10 +10792,10 @@
       <c r="CG3" s="2"/>
       <c r="CH3" s="2"/>
       <c r="CI3" s="2"/>
-      <c r="CJ3" s="8"/>
+      <c r="CJ3" s="4"/>
       <c r="CK3" s="2"/>
       <c r="CL3" s="2"/>
-      <c r="CM3" s="8"/>
+      <c r="CM3" s="4"/>
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
       <c r="CP3" s="2"/>
@@ -10524,17 +10807,21 @@
       <c r="CV3" s="2"/>
       <c r="CW3" s="2"/>
       <c r="CX3" s="2"/>
-      <c r="CY3" s="8"/>
-      <c r="CZ3" s="8"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
       <c r="DA3" s="2"/>
       <c r="DB3" s="2"/>
       <c r="DC3" s="2"/>
-      <c r="DD3" s="8">
+      <c r="DD3" s="4">
         <v>42754</v>
       </c>
       <c r="DE3" s="2"/>
       <c r="DF3" s="2"/>
       <c r="DG3" s="2"/>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2"/>
+      <c r="DJ3" s="2"/>
+      <c r="DK3" s="2"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="5">
@@ -10553,7 +10840,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="3">
+      <c r="O4" s="8">
         <v>42048</v>
       </c>
       <c r="P4" s="7"/>
@@ -10578,13 +10865,13 @@
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="6"/>
-      <c r="AL4" s="3">
+      <c r="AL4" s="8">
         <v>42271</v>
       </c>
       <c r="AM4" s="6"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="2"/>
-      <c r="AP4" s="3">
+      <c r="AP4" s="8">
         <v>42288</v>
       </c>
       <c r="AQ4" s="7"/>
@@ -10596,7 +10883,7 @@
       <c r="AW4" s="7"/>
       <c r="AX4" s="7"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="3">
+      <c r="AZ4" s="8">
         <v>42348</v>
       </c>
       <c r="BA4" s="2"/>
@@ -10612,7 +10899,7 @@
       <c r="BK4" s="7"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
-      <c r="BN4" s="3">
+      <c r="BN4" s="8">
         <v>42453</v>
       </c>
       <c r="BO4" s="7"/>
@@ -10636,12 +10923,12 @@
       <c r="CG4" s="2"/>
       <c r="CH4" s="2"/>
       <c r="CI4" s="2"/>
-      <c r="CJ4" s="8">
+      <c r="CJ4" s="4">
         <v>42621</v>
       </c>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
-      <c r="CM4" s="8">
+      <c r="CM4" s="4">
         <v>42664</v>
       </c>
       <c r="CN4" s="2"/>
@@ -10655,10 +10942,10 @@
       <c r="CV4" s="2"/>
       <c r="CW4" s="2"/>
       <c r="CX4" s="2"/>
-      <c r="CY4" s="8">
+      <c r="CY4" s="4">
         <v>42712</v>
       </c>
-      <c r="CZ4" s="8">
+      <c r="CZ4" s="4">
         <v>42732</v>
       </c>
       <c r="DA4" s="2"/>
@@ -10671,6 +10958,10 @@
       <c r="DE4" s="2"/>
       <c r="DF4" s="2"/>
       <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="5">
@@ -10700,14 +10991,16 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="3">
+      <c r="Z5" s="8">
         <v>42130</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AE5" t="s" s="5">
+        <v>4</v>
+      </c>
       <c r="AF5" s="7"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -10788,74 +11081,78 @@
       <c r="DE5" s="2"/>
       <c r="DF5" s="2"/>
       <c r="DG5" s="2"/>
+      <c r="DH5" s="2"/>
+      <c r="DI5" s="2"/>
+      <c r="DJ5" s="2"/>
+      <c r="DK5" s="2"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="3">
+      <c r="E6" s="8">
         <v>41985</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>41996</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="3">
+      <c r="J6" s="8">
         <v>42025</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="8">
         <v>42025</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="3">
+      <c r="M6" s="8">
         <v>42048</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="8">
         <v>42048</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="8">
         <v>42048</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="8">
         <v>42081</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="8">
         <v>42081</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="8">
         <v>42081</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="8">
         <v>42081</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="8">
         <v>42093</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="8">
         <v>42093</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="8">
         <v>42117</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="8">
         <v>42117</v>
       </c>
       <c r="X6" s="7"/>
-      <c r="Y6" s="3">
+      <c r="Y6" s="8">
         <v>42120</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="8">
         <v>42159</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="3">
+      <c r="AD6" s="8">
         <v>42184</v>
       </c>
       <c r="AE6" s="7"/>
@@ -10941,230 +11238,234 @@
       <c r="DE6" s="2"/>
       <c r="DF6" s="2"/>
       <c r="DG6" s="2"/>
+      <c r="DH6" s="2"/>
+      <c r="DI6" s="2"/>
+      <c r="DJ6" s="7"/>
+      <c r="DK6" s="7"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="3">
+      <c r="E7" s="8">
         <v>41977</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
         <v>41984</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
         <v>41991</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="8">
         <v>41995</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="8">
         <v>42001</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="3">
+      <c r="L7" s="8">
         <v>42026</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="8">
         <v>42033</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="8">
         <v>42010</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="8">
         <v>42048</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="8">
         <v>42054</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="8">
         <v>42061</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="8">
         <v>42068</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="8">
         <v>42075</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="8">
         <v>42082</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="8">
         <v>42089</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="8">
         <v>42096</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="8">
         <v>42103</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="8">
         <v>42110</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="8">
         <v>42117</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="8">
         <v>42120</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="8">
         <v>42124</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="8">
         <v>42131</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="8">
         <v>42152</v>
       </c>
       <c r="AD7" s="7"/>
-      <c r="AE7" s="3">
+      <c r="AE7" s="8">
         <v>42166</v>
       </c>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="3">
+      <c r="AG7" s="8">
         <v>42180</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="8">
         <v>42187</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="8">
         <v>42201</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="8">
         <v>42222</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="8">
         <v>42236</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="8">
         <v>42243</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="8">
         <v>42250</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="8">
         <v>42257</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="8">
         <v>42264</v>
       </c>
       <c r="AP7" s="7"/>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="8">
         <v>42278</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="8">
         <v>75164</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS7" s="8">
         <v>42299</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7" s="8">
         <v>42306</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU7" s="8">
         <v>42313</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="8">
         <v>42320</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW7" s="8">
         <v>42325</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AX7" s="8">
         <v>42334</v>
       </c>
-      <c r="AY7" s="3">
+      <c r="AY7" s="8">
         <v>42341</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ7" s="8">
         <v>42348</v>
       </c>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="3">
+      <c r="BB7" s="8">
         <v>42367</v>
       </c>
-      <c r="BC7" s="3">
+      <c r="BC7" s="8">
         <v>42345</v>
       </c>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3">
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8">
         <v>42390</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="BF7" s="8">
         <v>42397</v>
       </c>
       <c r="BG7" s="7"/>
       <c r="BH7" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="BI7" s="3">
+        <v>7</v>
+      </c>
+      <c r="BI7" s="8">
         <v>42418</v>
       </c>
-      <c r="BJ7" s="3">
+      <c r="BJ7" s="8">
         <v>42425</v>
       </c>
-      <c r="BK7" s="3">
+      <c r="BK7" s="8">
         <v>42432</v>
       </c>
-      <c r="BL7" s="3">
+      <c r="BL7" s="8">
         <v>42439</v>
       </c>
-      <c r="BM7" s="3">
+      <c r="BM7" s="8">
         <v>42446</v>
       </c>
-      <c r="BN7" s="3">
+      <c r="BN7" s="8">
         <v>42453</v>
       </c>
-      <c r="BO7" s="3">
+      <c r="BO7" s="8">
         <v>42460</v>
       </c>
-      <c r="BP7" s="3">
+      <c r="BP7" s="8">
         <v>42467</v>
       </c>
-      <c r="BQ7" s="3">
+      <c r="BQ7" s="8">
         <v>42474</v>
       </c>
-      <c r="BR7" s="3">
+      <c r="BR7" s="8">
         <v>42481</v>
       </c>
-      <c r="BS7" s="3">
+      <c r="BS7" s="8">
         <v>42485</v>
       </c>
       <c r="BT7" s="2"/>
-      <c r="BU7" s="3">
+      <c r="BU7" s="8">
         <v>42495</v>
       </c>
-      <c r="BV7" s="3">
+      <c r="BV7" s="8">
         <v>42502</v>
       </c>
       <c r="BW7" s="2"/>
-      <c r="BX7" s="8">
+      <c r="BX7" s="4">
         <v>42513</v>
       </c>
-      <c r="BY7" s="8">
+      <c r="BY7" s="4">
         <v>42523</v>
       </c>
       <c r="BZ7" s="2"/>
       <c r="CA7" s="2"/>
-      <c r="CB7" s="8">
+      <c r="CB7" s="4">
         <v>42530</v>
       </c>
-      <c r="CC7" s="8">
+      <c r="CC7" s="4">
         <v>42544</v>
       </c>
       <c r="CD7" s="6"/>
-      <c r="CE7" s="8">
+      <c r="CE7" s="4">
         <v>42556</v>
       </c>
       <c r="CF7" s="7"/>
-      <c r="CG7" s="8">
+      <c r="CG7" s="4">
         <v>42565</v>
       </c>
-      <c r="CH7" s="8">
+      <c r="CH7" s="4">
         <v>42572</v>
       </c>
       <c r="CI7" s="7"/>
@@ -11176,52 +11477,64 @@
       <c r="CO7" s="2"/>
       <c r="CP7" s="2"/>
       <c r="CQ7" s="2"/>
-      <c r="CR7" s="8">
+      <c r="CR7" s="4">
         <v>42656</v>
       </c>
-      <c r="CS7" s="8">
+      <c r="CS7" s="4">
         <v>42663</v>
       </c>
       <c r="CT7" s="2"/>
       <c r="CU7" s="2"/>
-      <c r="CV7" s="8">
+      <c r="CV7" s="4">
         <v>42684</v>
       </c>
-      <c r="CW7" s="8">
+      <c r="CW7" s="4">
         <v>42698</v>
       </c>
-      <c r="CX7" s="8">
+      <c r="CX7" s="4">
         <v>42705</v>
       </c>
-      <c r="CY7" s="8">
+      <c r="CY7" s="4">
         <v>42712</v>
       </c>
-      <c r="CZ7" s="8">
+      <c r="CZ7" s="4">
         <v>42719</v>
       </c>
-      <c r="DA7" s="8">
+      <c r="DA7" s="4">
         <v>42732</v>
       </c>
-      <c r="DB7" s="8">
+      <c r="DB7" s="4">
         <v>42740</v>
       </c>
-      <c r="DC7" s="8">
+      <c r="DC7" s="4">
         <v>42747</v>
       </c>
-      <c r="DD7" s="8">
+      <c r="DD7" s="4">
         <v>42754</v>
       </c>
       <c r="DE7" s="2"/>
-      <c r="DF7" s="8">
+      <c r="DF7" s="4">
         <v>42768</v>
       </c>
-      <c r="DG7" s="8">
+      <c r="DG7" s="4">
         <v>42775</v>
+      </c>
+      <c r="DH7" s="4">
+        <v>42782</v>
+      </c>
+      <c r="DI7" s="4">
+        <v>42789</v>
+      </c>
+      <c r="DJ7" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DK7" s="4">
+        <v>42803</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -11232,17 +11545,17 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="3">
+      <c r="K8" s="8">
         <v>42033</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="3">
+      <c r="M8" s="8">
         <v>42033</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="8">
         <v>42041</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="8">
         <v>42048</v>
       </c>
       <c r="P8" s="2"/>
@@ -11250,56 +11563,56 @@
       <c r="R8" s="7">
         <v>5.25</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="8">
         <v>42075</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="8">
         <v>42089</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="8">
         <v>42096</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="8">
         <v>42096</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="8">
         <v>42117</v>
       </c>
       <c r="X8" s="7"/>
-      <c r="Y8" s="3">
+      <c r="Y8" s="8">
         <v>42120</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="8">
         <v>42124</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="8">
         <v>42131</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="8">
         <v>42159</v>
       </c>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="3">
+      <c r="AD8" s="8">
         <v>42166</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="8">
         <v>42173</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="8">
         <v>42180</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="8">
         <v>42187</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH8" s="8">
         <v>42222</v>
       </c>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="8">
         <v>42243</v>
       </c>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="3">
+      <c r="AL8" s="8">
         <v>42292</v>
       </c>
       <c r="AM8" s="7"/>
@@ -11307,16 +11620,16 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="7"/>
       <c r="AQ8" s="7"/>
-      <c r="AR8" s="3">
+      <c r="AR8" s="8">
         <v>42320</v>
       </c>
       <c r="AS8" s="7"/>
       <c r="AT8" s="7"/>
       <c r="AU8" s="6"/>
-      <c r="AV8" s="3">
+      <c r="AV8" s="8">
         <v>42327</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AW8" s="8">
         <v>42376</v>
       </c>
       <c r="AX8" s="6"/>
@@ -11324,10 +11637,10 @@
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="7"/>
-      <c r="BC8" s="3">
+      <c r="BC8" s="8">
         <v>42383</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BD8" s="8">
         <v>42446</v>
       </c>
       <c r="BE8" s="7"/>
@@ -11338,7 +11651,7 @@
       <c r="BJ8" s="7"/>
       <c r="BK8" s="7"/>
       <c r="BL8" s="6"/>
-      <c r="BM8" s="8">
+      <c r="BM8" s="4">
         <v>42558</v>
       </c>
       <c r="BN8" s="6"/>
@@ -11390,24 +11703,28 @@
       <c r="DE8" s="2"/>
       <c r="DF8" s="2"/>
       <c r="DG8" s="2"/>
+      <c r="DH8" s="2"/>
+      <c r="DI8" s="2"/>
+      <c r="DJ8" s="7"/>
+      <c r="DK8" s="2"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>41974</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="3">
+      <c r="I9" s="8">
         <v>42001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="8">
         <v>42068</v>
       </c>
       <c r="K9" s="7"/>
@@ -11416,40 +11733,40 @@
       <c r="N9" s="7"/>
       <c r="O9" s="6"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="3">
+      <c r="Q9" s="8">
         <v>42068</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="8">
         <v>42075</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="8">
         <v>42109</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="8">
         <v>42109</v>
       </c>
       <c r="U9" s="2"/>
-      <c r="V9" s="3">
+      <c r="V9" s="8">
         <v>42109</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="8">
         <v>42109</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="8">
         <v>42117</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="8">
         <v>42131</v>
       </c>
       <c r="Z9" s="7"/>
-      <c r="AA9" s="3">
+      <c r="AA9" s="8">
         <v>42131</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="8">
         <v>42159</v>
       </c>
       <c r="AC9" s="7"/>
-      <c r="AD9" s="3">
+      <c r="AD9" s="8">
         <v>42166</v>
       </c>
       <c r="AE9" s="7">
@@ -11536,10 +11853,14 @@
       <c r="DE9" s="2"/>
       <c r="DF9" s="2"/>
       <c r="DG9" s="2"/>
+      <c r="DH9" s="2"/>
+      <c r="DI9" s="2"/>
+      <c r="DJ9" s="7"/>
+      <c r="DK9" s="2"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -11573,7 +11894,7 @@
       <c r="AE10" s="7"/>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
-      <c r="AH10" s="3">
+      <c r="AH10" s="8">
         <v>42306</v>
       </c>
       <c r="AI10" s="6"/>
@@ -11587,22 +11908,22 @@
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
-      <c r="AT10" s="3">
+      <c r="AT10" s="8">
         <v>42327</v>
       </c>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
-      <c r="AW10" s="3">
+      <c r="AW10" s="8">
         <v>42341</v>
       </c>
       <c r="AX10" s="6"/>
-      <c r="AY10" s="3">
+      <c r="AY10" s="8">
         <v>42348</v>
       </c>
-      <c r="AZ10" s="3">
+      <c r="AZ10" s="8">
         <v>42355</v>
       </c>
-      <c r="BA10" s="3">
+      <c r="BA10" s="8">
         <v>42429</v>
       </c>
       <c r="BB10" s="6"/>
@@ -11615,7 +11936,7 @@
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
-      <c r="BL10" s="3">
+      <c r="BL10" s="8">
         <v>42502</v>
       </c>
       <c r="BM10" s="6"/>
@@ -11627,10 +11948,10 @@
       <c r="BS10" s="6"/>
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
-      <c r="BV10" s="3">
+      <c r="BV10" s="8">
         <v>42509</v>
       </c>
-      <c r="BW10" s="8">
+      <c r="BW10" s="4">
         <v>42586</v>
       </c>
       <c r="BX10" s="7"/>
@@ -11644,7 +11965,7 @@
       <c r="CF10" s="2"/>
       <c r="CG10" s="2"/>
       <c r="CH10" s="2"/>
-      <c r="CI10" s="8">
+      <c r="CI10" s="4">
         <v>42642</v>
       </c>
       <c r="CJ10" s="2"/>
@@ -11653,14 +11974,14 @@
       <c r="CM10" s="2"/>
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
-      <c r="CP10" s="8">
+      <c r="CP10" s="4">
         <v>42642</v>
       </c>
       <c r="CQ10" s="2"/>
-      <c r="CR10" s="8">
+      <c r="CR10" s="4">
         <v>42663</v>
       </c>
-      <c r="CS10" s="8">
+      <c r="CS10" s="4">
         <v>42696</v>
       </c>
       <c r="CT10" s="2"/>
@@ -11680,31 +12001,42 @@
       <c r="DE10" s="2"/>
       <c r="DF10" s="2"/>
       <c r="DG10" s="2"/>
+      <c r="DH10" s="2"/>
+      <c r="DI10" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DJ10" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DK10" s="2">
+        <f>23.64+5.38</f>
+        <v>29.02</v>
+      </c>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="3">
+      <c r="E11" s="8">
         <v>41970</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="8">
         <v>41984</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <v>41995</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="8">
         <v>42019</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="8">
         <v>42019</v>
       </c>
       <c r="J11" s="7"/>
-      <c r="K11" s="3">
+      <c r="K11" s="8">
         <v>42089</v>
       </c>
       <c r="L11" s="7"/>
@@ -11716,7 +12048,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="2"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="3">
+      <c r="U11" s="8">
         <v>42124</v>
       </c>
       <c r="V11" s="2"/>
@@ -11724,12 +12056,12 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
-      <c r="AA11" s="3">
+      <c r="AA11" s="8">
         <v>42159</v>
       </c>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
-      <c r="AD11" s="3">
+      <c r="AD11" s="8">
         <v>42292</v>
       </c>
       <c r="AE11" s="7"/>
@@ -11745,453 +12077,471 @@
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
-      <c r="AR11" s="3">
+      <c r="AR11" s="8">
         <v>42292</v>
       </c>
       <c r="AS11" s="7"/>
-      <c r="AT11" s="3">
+      <c r="AT11" s="8">
         <v>42313</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU11" s="8">
         <v>42327</v>
       </c>
       <c r="AV11" s="7"/>
-      <c r="AW11" s="3">
+      <c r="AW11" s="8">
         <v>42348</v>
       </c>
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="3">
+      <c r="AZ11" s="8">
         <v>42355</v>
       </c>
-      <c r="BA11" s="3">
+      <c r="BA11" s="8">
         <v>42367</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="BB11" s="8">
         <v>42206</v>
       </c>
       <c r="BC11" s="6"/>
       <c r="BD11" s="7"/>
-      <c r="BE11" s="3">
+      <c r="BE11" s="8">
         <v>42404</v>
       </c>
       <c r="BF11" s="7"/>
-      <c r="BG11" s="3">
+      <c r="BG11" s="8">
         <v>42411</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BH11" s="8">
         <v>42418</v>
       </c>
-      <c r="BI11" s="3">
+      <c r="BI11" s="8">
         <v>42425</v>
       </c>
-      <c r="BJ11" s="3">
+      <c r="BJ11" s="8">
         <v>42432</v>
       </c>
-      <c r="BK11" s="3">
+      <c r="BK11" s="8">
         <v>42439</v>
       </c>
-      <c r="BL11" s="3">
+      <c r="BL11" s="8">
         <v>42446</v>
       </c>
-      <c r="BM11" s="3">
+      <c r="BM11" s="8">
         <v>42453</v>
       </c>
-      <c r="BN11" s="3">
+      <c r="BN11" s="8">
         <v>42460</v>
       </c>
-      <c r="BO11" s="3">
+      <c r="BO11" s="8">
         <v>42467</v>
       </c>
-      <c r="BP11" s="3">
+      <c r="BP11" s="8">
         <v>42474</v>
       </c>
-      <c r="BQ11" s="3">
+      <c r="BQ11" s="8">
         <v>42485</v>
       </c>
       <c r="BR11" s="6"/>
-      <c r="BS11" s="3">
+      <c r="BS11" s="8">
         <v>42494</v>
       </c>
-      <c r="BT11" s="3">
+      <c r="BT11" s="8">
         <v>42502</v>
       </c>
       <c r="BU11" s="7"/>
-      <c r="BV11" s="3">
+      <c r="BV11" s="8">
         <v>42509</v>
       </c>
-      <c r="BW11" s="3">
+      <c r="BW11" s="8">
         <v>42513</v>
       </c>
-      <c r="BX11" s="8">
+      <c r="BX11" s="4">
         <v>42523</v>
       </c>
-      <c r="BY11" s="8">
+      <c r="BY11" s="4">
         <v>42527</v>
       </c>
-      <c r="BZ11" s="8">
+      <c r="BZ11" s="4">
         <v>42528</v>
       </c>
-      <c r="CA11" s="8">
+      <c r="CA11" s="4">
         <v>42544</v>
       </c>
       <c r="CB11" s="2"/>
-      <c r="CC11" s="8">
+      <c r="CC11" s="4">
         <v>42551</v>
       </c>
-      <c r="CD11" s="8">
+      <c r="CD11" s="4">
         <v>42565</v>
       </c>
       <c r="CE11" s="2"/>
       <c r="CF11" s="2"/>
-      <c r="CG11" s="8">
+      <c r="CG11" s="4">
         <v>42593</v>
       </c>
       <c r="CH11" s="2"/>
       <c r="CI11" s="2"/>
-      <c r="CJ11" s="8">
+      <c r="CJ11" s="4">
         <v>42607</v>
       </c>
-      <c r="CK11" s="8">
+      <c r="CK11" s="4">
         <v>42614</v>
       </c>
-      <c r="CL11" s="8">
+      <c r="CL11" s="4">
         <v>42621</v>
       </c>
-      <c r="CM11" s="8">
+      <c r="CM11" s="4">
         <v>42628</v>
       </c>
-      <c r="CN11" s="8">
+      <c r="CN11" s="4">
         <v>42649</v>
       </c>
       <c r="CO11" s="7"/>
       <c r="CP11" s="7"/>
-      <c r="CQ11" s="8">
+      <c r="CQ11" s="4">
         <v>42656</v>
       </c>
-      <c r="CR11" s="8">
+      <c r="CR11" s="4">
         <v>42663</v>
       </c>
-      <c r="CS11" s="8">
+      <c r="CS11" s="4">
         <v>42670</v>
       </c>
-      <c r="CT11" s="8">
+      <c r="CT11" s="4">
         <v>42684</v>
       </c>
       <c r="CU11" s="2"/>
-      <c r="CV11" s="8">
+      <c r="CV11" s="4">
         <v>42702</v>
       </c>
-      <c r="CW11" s="8">
+      <c r="CW11" s="4">
         <v>42719</v>
       </c>
       <c r="CX11" s="2"/>
       <c r="CY11" s="2"/>
-      <c r="CZ11" s="8">
+      <c r="CZ11" s="4">
         <v>42761</v>
       </c>
       <c r="DA11" s="2"/>
       <c r="DB11" s="2"/>
       <c r="DC11" s="2"/>
       <c r="DD11" s="2"/>
-      <c r="DE11" s="8">
+      <c r="DE11" s="4">
         <v>42768</v>
       </c>
-      <c r="DF11" s="8">
+      <c r="DF11" s="4">
         <v>42775</v>
       </c>
-      <c r="DG11" s="2">
-        <f>13.28+5.38</f>
-        <v>18.66</v>
+      <c r="DG11" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DH11" s="2"/>
+      <c r="DI11" s="2"/>
+      <c r="DJ11" s="7"/>
+      <c r="DK11" s="2">
+        <f>18.66+5.38</f>
+        <v>24.04</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="3">
+      <c r="E12" s="8">
         <v>41976</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="3">
+      <c r="H12" s="8">
         <v>42019</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="3">
+      <c r="J12" s="8">
         <v>42047</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="8">
         <v>42047</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="8">
         <v>42047</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="8">
         <v>42047</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="8">
         <v>42047</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="3">
+      <c r="P12" s="8">
         <v>42068</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="8">
         <v>42068</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="8">
         <v>42075</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="8">
         <v>42082</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="8">
         <v>42089</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="8">
         <v>42094</v>
       </c>
       <c r="V12" s="2"/>
-      <c r="W12" s="3">
+      <c r="W12" s="8">
         <v>42110</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="8">
         <v>42117</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="8">
         <v>42131</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="8">
         <v>42131</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="8">
         <v>42131</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="8">
         <v>42143</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="8">
         <v>42159</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="8">
         <v>42166</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="8">
         <v>42173</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12" s="8">
         <v>42180</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG12" s="8">
         <v>42187</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AH12" s="8">
         <v>42201</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12" s="8">
         <v>42236</v>
       </c>
       <c r="AJ12" s="7"/>
-      <c r="AK12" s="3">
+      <c r="AK12" s="8">
         <v>42243</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL12" s="8">
         <v>42250</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="8">
         <v>42257</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="8">
         <v>42264</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="8">
         <v>42271</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="8">
         <v>42276</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="8">
         <v>42276</v>
       </c>
       <c r="AR12" s="6"/>
-      <c r="AS12" s="3">
+      <c r="AS12" s="8">
         <v>42325</v>
       </c>
       <c r="AT12" s="7"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="7"/>
-      <c r="AW12" s="3">
+      <c r="AW12" s="8">
         <v>42334</v>
       </c>
-      <c r="AX12" s="3">
+      <c r="AX12" s="8">
         <v>42341</v>
       </c>
-      <c r="AY12" s="3">
+      <c r="AY12" s="8">
         <v>42348</v>
       </c>
-      <c r="AZ12" s="3">
+      <c r="AZ12" s="8">
         <v>42355</v>
       </c>
-      <c r="BA12" s="3">
+      <c r="BA12" s="8">
         <v>42367</v>
       </c>
-      <c r="BB12" s="3">
+      <c r="BB12" s="8">
         <v>42376</v>
       </c>
-      <c r="BC12" s="3">
+      <c r="BC12" s="8">
         <v>42383</v>
       </c>
-      <c r="BD12" s="3">
+      <c r="BD12" s="8">
         <v>42390</v>
       </c>
-      <c r="BE12" s="3">
+      <c r="BE12" s="8">
         <v>42397</v>
       </c>
-      <c r="BF12" s="3">
+      <c r="BF12" s="8">
         <v>42404</v>
       </c>
-      <c r="BG12" s="3">
+      <c r="BG12" s="8">
         <v>42411</v>
       </c>
-      <c r="BH12" s="3">
+      <c r="BH12" s="8">
         <v>42418</v>
       </c>
-      <c r="BI12" s="3">
+      <c r="BI12" s="8">
         <v>42425</v>
       </c>
-      <c r="BJ12" s="3">
+      <c r="BJ12" s="8">
         <v>42432</v>
       </c>
-      <c r="BK12" s="3">
+      <c r="BK12" s="8">
         <v>42439</v>
       </c>
-      <c r="BL12" s="3">
+      <c r="BL12" s="8">
         <v>42446</v>
       </c>
-      <c r="BM12" s="3">
+      <c r="BM12" s="8">
         <v>42453</v>
       </c>
-      <c r="BN12" s="3">
+      <c r="BN12" s="8">
         <v>42460</v>
       </c>
-      <c r="BO12" s="3">
+      <c r="BO12" s="8">
         <v>42467</v>
       </c>
-      <c r="BP12" s="3">
+      <c r="BP12" s="8">
         <v>42474</v>
       </c>
-      <c r="BQ12" s="3">
+      <c r="BQ12" s="8">
         <v>42481</v>
       </c>
-      <c r="BR12" s="3">
+      <c r="BR12" s="8">
         <v>42485</v>
       </c>
-      <c r="BS12" s="3">
+      <c r="BS12" s="8">
         <v>42495</v>
       </c>
       <c r="BT12" s="7"/>
-      <c r="BU12" s="3">
+      <c r="BU12" s="8">
         <v>42502</v>
       </c>
-      <c r="BV12" s="3">
+      <c r="BV12" s="8">
         <v>42509</v>
       </c>
-      <c r="BW12" s="3">
+      <c r="BW12" s="8">
         <v>42513</v>
       </c>
-      <c r="BX12" s="8">
+      <c r="BX12" s="4">
         <v>42528</v>
       </c>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
-      <c r="CA12" s="8">
+      <c r="CA12" s="4">
         <v>42530</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="4">
         <v>42551</v>
       </c>
       <c r="CC12" s="2"/>
-      <c r="CD12" s="8">
+      <c r="CD12" s="4">
         <v>42556</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="4">
         <v>42565</v>
       </c>
       <c r="CF12" s="7"/>
-      <c r="CG12" s="8">
+      <c r="CG12" s="4">
         <v>42572</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="4">
         <v>42593</v>
       </c>
       <c r="CI12" s="7"/>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="4">
         <v>42614</v>
       </c>
       <c r="CK12" s="2"/>
-      <c r="CL12" s="8">
+      <c r="CL12" s="4">
         <v>42621</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="4">
         <v>42628</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="4">
         <v>42642</v>
       </c>
       <c r="CO12" s="2"/>
-      <c r="CP12" s="8">
+      <c r="CP12" s="4">
         <v>42656</v>
       </c>
       <c r="CQ12" s="2"/>
-      <c r="CR12" s="8">
+      <c r="CR12" s="4">
         <v>42702</v>
       </c>
       <c r="CS12" s="7"/>
       <c r="CT12" s="7"/>
       <c r="CU12" s="7"/>
       <c r="CV12" s="7"/>
-      <c r="CW12" s="8">
+      <c r="CW12" s="4">
         <v>42705</v>
       </c>
-      <c r="CX12" s="8">
+      <c r="CX12" s="4">
         <v>42712</v>
       </c>
-      <c r="CY12" s="8">
+      <c r="CY12" s="4">
         <v>42719</v>
       </c>
-      <c r="CZ12" s="8">
+      <c r="CZ12" s="4">
         <v>42732</v>
       </c>
-      <c r="DA12" s="8">
+      <c r="DA12" s="4">
         <v>42740</v>
       </c>
-      <c r="DB12" s="8">
+      <c r="DB12" s="4">
         <v>42747</v>
       </c>
-      <c r="DC12" s="8">
+      <c r="DC12" s="4">
         <v>42754</v>
       </c>
-      <c r="DD12" s="8">
+      <c r="DD12" s="4">
         <v>42761</v>
       </c>
-      <c r="DE12" s="8">
+      <c r="DE12" s="4">
         <v>42768</v>
       </c>
-      <c r="DF12" s="8">
+      <c r="DF12" s="4">
         <v>42775</v>
       </c>
-      <c r="DG12" s="2">
-        <f>-116.81-18</f>
-        <v>-134.81</v>
+      <c r="DG12" s="4">
+        <v>42782</v>
+      </c>
+      <c r="DH12" s="4">
+        <v>42789</v>
+      </c>
+      <c r="DI12" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DJ12" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DK12" s="2">
+        <f>-167.26+5.38-3.5-18+70</f>
+        <v>-113.38</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -12217,7 +12567,7 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="3">
+      <c r="Z13" s="8">
         <v>42271</v>
       </c>
       <c r="AA13" s="7"/>
@@ -12261,7 +12611,7 @@
       <c r="BJ13" s="7"/>
       <c r="BK13" s="7"/>
       <c r="BL13" s="7"/>
-      <c r="BM13" s="3">
+      <c r="BM13" s="8">
         <v>42450</v>
       </c>
       <c r="BN13" s="7"/>
@@ -12310,10 +12660,14 @@
       <c r="DE13" s="2"/>
       <c r="DF13" s="2"/>
       <c r="DG13" s="2"/>
+      <c r="DH13" s="2"/>
+      <c r="DI13" s="2"/>
+      <c r="DJ13" s="7"/>
+      <c r="DK13" s="2"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -12378,10 +12732,10 @@
       <c r="BJ14" s="7"/>
       <c r="BK14" s="7"/>
       <c r="BL14" s="7"/>
-      <c r="BM14" s="3">
+      <c r="BM14" s="8">
         <v>42453</v>
       </c>
-      <c r="BN14" s="3">
+      <c r="BN14" s="8">
         <v>42497</v>
       </c>
       <c r="BO14" s="7"/>
@@ -12429,10 +12783,14 @@
       <c r="DE14" s="2"/>
       <c r="DF14" s="2"/>
       <c r="DG14" s="2"/>
+      <c r="DH14" s="2"/>
+      <c r="DI14" s="2"/>
+      <c r="DJ14" s="7"/>
+      <c r="DK14" s="2"/>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -12442,35 +12800,35 @@
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="3">
+      <c r="J15" s="8">
         <v>42018</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="8">
         <v>42025</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="8">
         <v>74920</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="8">
         <v>42048</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="8">
         <v>42048</v>
       </c>
       <c r="O15" s="6"/>
-      <c r="P15" s="3">
+      <c r="P15" s="8">
         <v>42072</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="3">
+      <c r="S15" s="8">
         <v>42076</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="2"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="3">
+      <c r="X15" s="8">
         <v>42156</v>
       </c>
       <c r="Y15" s="7"/>
@@ -12483,23 +12841,23 @@
       <c r="AF15" s="7"/>
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
-      <c r="AI15" s="3">
+      <c r="AI15" s="8">
         <v>42222</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AJ15" s="8">
         <v>42264</v>
       </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
-      <c r="AO15" s="3">
+      <c r="AO15" s="8">
         <v>42271</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AP15" s="8">
         <v>42273</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="8">
         <v>42327</v>
       </c>
       <c r="AR15" s="2"/>
@@ -12507,135 +12865,144 @@
       <c r="AT15" s="7"/>
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
-      <c r="AW15" s="3">
+      <c r="AW15" s="8">
         <v>42341</v>
       </c>
       <c r="AX15" s="6"/>
-      <c r="AY15" s="3">
+      <c r="AY15" s="8">
         <v>42355</v>
       </c>
       <c r="AZ15" s="2"/>
-      <c r="BA15" s="3">
+      <c r="BA15" s="8">
         <v>42373</v>
       </c>
       <c r="BB15" s="7"/>
-      <c r="BC15" s="3">
+      <c r="BC15" s="8">
         <v>42390</v>
       </c>
       <c r="BD15" s="6"/>
-      <c r="BE15" s="3">
+      <c r="BE15" s="8">
         <v>42404</v>
       </c>
       <c r="BF15" s="6"/>
-      <c r="BG15" s="3">
+      <c r="BG15" s="8">
         <v>42431</v>
       </c>
       <c r="BH15" s="7"/>
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
       <c r="BK15" s="7"/>
-      <c r="BL15" s="3">
+      <c r="BL15" s="8">
         <v>42446</v>
       </c>
-      <c r="BM15" s="3">
+      <c r="BM15" s="8">
         <v>42460</v>
       </c>
       <c r="BN15" s="6"/>
-      <c r="BO15" s="3">
+      <c r="BO15" s="8">
         <v>42466</v>
       </c>
       <c r="BP15" s="6"/>
-      <c r="BQ15" s="3">
+      <c r="BQ15" s="8">
         <v>42485</v>
       </c>
       <c r="BR15" s="2"/>
-      <c r="BS15" s="3">
+      <c r="BS15" s="8">
         <v>42495</v>
       </c>
       <c r="BT15" s="7"/>
-      <c r="BU15" s="3">
+      <c r="BU15" s="8">
         <v>42495</v>
       </c>
-      <c r="BV15" s="3">
+      <c r="BV15" s="8">
         <v>42513</v>
       </c>
       <c r="BW15" s="2"/>
-      <c r="BX15" s="8">
+      <c r="BX15" s="4">
         <v>42527</v>
       </c>
       <c r="BY15" s="7"/>
-      <c r="BZ15" s="8">
+      <c r="BZ15" s="4">
         <v>42530</v>
       </c>
       <c r="CA15" s="7"/>
-      <c r="CB15" s="8">
+      <c r="CB15" s="4">
         <v>42543</v>
       </c>
-      <c r="CC15" s="8">
+      <c r="CC15" s="4">
         <v>42551</v>
       </c>
-      <c r="CD15" s="8">
+      <c r="CD15" s="4">
         <v>42556</v>
       </c>
-      <c r="CE15" s="8">
+      <c r="CE15" s="4">
         <v>42565</v>
       </c>
       <c r="CF15" s="7"/>
-      <c r="CG15" s="8">
+      <c r="CG15" s="4">
         <v>42572</v>
       </c>
-      <c r="CH15" s="8">
+      <c r="CH15" s="4">
         <v>42614</v>
       </c>
       <c r="CI15" s="7"/>
       <c r="CJ15" s="7"/>
       <c r="CK15" s="7"/>
-      <c r="CL15" s="8">
+      <c r="CL15" s="4">
         <v>42621</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="4">
         <v>42628</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="4">
         <v>42642</v>
       </c>
       <c r="CO15" s="7"/>
-      <c r="CP15" s="8">
+      <c r="CP15" s="4">
         <v>75520</v>
       </c>
-      <c r="CQ15" s="8">
+      <c r="CQ15" s="4">
         <v>42650</v>
       </c>
       <c r="CR15" s="7"/>
       <c r="CS15" s="2"/>
       <c r="CT15" s="2"/>
-      <c r="CU15" s="8">
+      <c r="CU15" s="4">
         <v>42684</v>
       </c>
-      <c r="CV15" s="8">
+      <c r="CV15" s="4">
         <v>42704</v>
       </c>
       <c r="CW15" s="2"/>
       <c r="CX15" s="2"/>
       <c r="CY15" s="2"/>
-      <c r="CZ15" s="8">
+      <c r="CZ15" s="4">
         <v>42740</v>
       </c>
       <c r="DA15" s="2"/>
-      <c r="DB15" s="8">
+      <c r="DB15" s="4">
         <v>42747</v>
       </c>
-      <c r="DC15" s="8">
+      <c r="DC15" s="4">
         <v>42768</v>
       </c>
       <c r="DD15" s="2"/>
       <c r="DE15" s="2"/>
       <c r="DF15" s="2"/>
       <c r="DG15" s="2"/>
+      <c r="DH15" s="2"/>
+      <c r="DI15" s="2"/>
+      <c r="DJ15" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DK15" s="2">
+        <f>5.38+5.38</f>
+        <v>10.76</v>
+      </c>
     </row>
     <row r="16" ht="13.65" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -12657,25 +13024,25 @@
       <c r="S16" s="2"/>
       <c r="T16" s="6"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="3">
+      <c r="V16" s="8">
         <v>42110</v>
       </c>
       <c r="W16" s="7"/>
-      <c r="X16" s="3">
+      <c r="X16" s="8">
         <v>42152</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="3">
+      <c r="AC16" s="8">
         <v>42159</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="8">
         <v>42173</v>
       </c>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="3">
+      <c r="AF16" s="8">
         <v>42271</v>
       </c>
       <c r="AG16" s="6"/>
@@ -12687,94 +13054,94 @@
       <c r="AM16" s="2"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="2"/>
-      <c r="AP16" s="3">
+      <c r="AP16" s="8">
         <v>42299</v>
       </c>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="6"/>
-      <c r="AS16" s="3">
+      <c r="AS16" s="8">
         <v>42306</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AT16" s="8">
         <v>42313</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AU16" s="8">
         <v>42348</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
-      <c r="AZ16" s="3">
+      <c r="AZ16" s="8">
         <v>42367</v>
       </c>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="3">
+      <c r="BB16" s="8">
         <v>42397</v>
       </c>
       <c r="BC16" s="7"/>
       <c r="BD16" s="7"/>
       <c r="BE16" s="7"/>
-      <c r="BF16" s="3">
+      <c r="BF16" s="8">
         <v>42404</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BG16" s="8">
         <v>42418</v>
       </c>
       <c r="BH16" s="7"/>
-      <c r="BI16" s="3">
+      <c r="BI16" s="8">
         <v>42425</v>
       </c>
-      <c r="BJ16" s="3">
+      <c r="BJ16" s="8">
         <v>42432</v>
       </c>
-      <c r="BK16" s="3">
+      <c r="BK16" s="8">
         <v>42453</v>
       </c>
       <c r="BL16" s="6"/>
       <c r="BM16" s="6"/>
-      <c r="BN16" s="3">
+      <c r="BN16" s="8">
         <v>42460</v>
       </c>
-      <c r="BO16" s="3">
+      <c r="BO16" s="8">
         <v>42467</v>
       </c>
-      <c r="BP16" s="3">
+      <c r="BP16" s="8">
         <v>42481</v>
       </c>
       <c r="BQ16" s="6"/>
-      <c r="BR16" s="3">
+      <c r="BR16" s="8">
         <v>42485</v>
       </c>
-      <c r="BS16" s="3">
+      <c r="BS16" s="8">
         <v>42494</v>
       </c>
-      <c r="BT16" s="3">
+      <c r="BT16" s="8">
         <v>42509</v>
       </c>
       <c r="BU16" s="7"/>
       <c r="BV16" s="7"/>
-      <c r="BW16" s="3">
+      <c r="BW16" s="8">
         <v>42513</v>
       </c>
-      <c r="BX16" s="8">
+      <c r="BX16" s="4">
         <v>42527</v>
       </c>
       <c r="BY16" s="2"/>
-      <c r="BZ16" s="8">
+      <c r="BZ16" s="4">
         <v>42530</v>
       </c>
       <c r="CA16" s="2"/>
-      <c r="CB16" s="8">
+      <c r="CB16" s="4">
         <v>42551</v>
       </c>
       <c r="CC16" s="2"/>
-      <c r="CD16" s="8">
+      <c r="CD16" s="4">
         <v>42565</v>
       </c>
       <c r="CE16" s="7"/>
       <c r="CF16" s="7"/>
-      <c r="CG16" s="8">
+      <c r="CG16" s="4">
         <v>42621</v>
       </c>
       <c r="CH16" s="7"/>
@@ -12782,18 +13149,18 @@
       <c r="CJ16" s="7"/>
       <c r="CK16" s="2"/>
       <c r="CL16" s="2"/>
-      <c r="CM16" s="8">
+      <c r="CM16" s="4">
         <v>42635</v>
       </c>
       <c r="CN16" s="2"/>
-      <c r="CO16" s="8">
+      <c r="CO16" s="4">
         <v>42642</v>
       </c>
-      <c r="CP16" s="8">
+      <c r="CP16" s="4">
         <v>42649</v>
       </c>
       <c r="CQ16" s="7"/>
-      <c r="CR16" s="8">
+      <c r="CR16" s="4">
         <v>42705</v>
       </c>
       <c r="CS16" s="2"/>
@@ -12801,42 +13168,52 @@
       <c r="CU16" s="2"/>
       <c r="CV16" s="2"/>
       <c r="CW16" s="2"/>
-      <c r="CX16" s="8">
+      <c r="CX16" s="4">
         <v>42732</v>
       </c>
       <c r="CY16" s="2"/>
       <c r="CZ16" s="2"/>
-      <c r="DA16" s="8">
+      <c r="DA16" s="4">
         <v>42740</v>
       </c>
-      <c r="DB16" s="8">
+      <c r="DB16" s="4">
         <v>42754</v>
       </c>
       <c r="DC16" s="2"/>
-      <c r="DD16" s="8">
+      <c r="DD16" s="4">
         <v>42768</v>
       </c>
       <c r="DE16" s="2"/>
-      <c r="DF16" s="8">
+      <c r="DF16" s="4">
         <v>42775</v>
       </c>
-      <c r="DG16" s="2">
-        <f t="shared" si="8" ref="DG16:DG29">19.73+5.38</f>
-        <v>25.11</v>
+      <c r="DG16" s="4">
+        <v>42782</v>
+      </c>
+      <c r="DH16" s="4">
+        <v>42789</v>
+      </c>
+      <c r="DI16" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DJ16" s="7"/>
+      <c r="DK16" s="2">
+        <f>12.55+5.38-5-38.04</f>
+        <v>-25.11</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -12845,15 +13222,15 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="3">
+      <c r="R17" s="8">
         <v>42088</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="3">
+      <c r="U17" s="8">
         <v>42092</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="8">
         <v>42152</v>
       </c>
       <c r="W17" s="6"/>
@@ -12862,10 +13239,10 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="3">
+      <c r="AC17" s="8">
         <v>42159</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="8">
         <v>42178</v>
       </c>
       <c r="AE17" s="7"/>
@@ -12875,29 +13252,29 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-      <c r="AL17" s="3">
+      <c r="AL17" s="8">
         <v>42278</v>
       </c>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="7"/>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="8">
         <v>42313</v>
       </c>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="7"/>
-      <c r="AU17" s="3">
+      <c r="AU17" s="8">
         <v>42341</v>
       </c>
       <c r="AV17" s="7"/>
       <c r="AW17" s="7"/>
       <c r="AX17" s="7"/>
-      <c r="AY17" s="3">
+      <c r="AY17" s="8">
         <v>42348</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AZ17" s="8">
         <v>42397</v>
       </c>
       <c r="BA17" s="6"/>
@@ -12905,14 +13282,14 @@
       <c r="BC17" s="2"/>
       <c r="BD17" s="7"/>
       <c r="BE17" s="7"/>
-      <c r="BF17" s="3">
+      <c r="BF17" s="8">
         <v>42411</v>
       </c>
       <c r="BG17" s="7"/>
-      <c r="BH17" s="3">
+      <c r="BH17" s="8">
         <v>42418</v>
       </c>
-      <c r="BI17" s="3">
+      <c r="BI17" s="8">
         <v>42495</v>
       </c>
       <c r="BJ17" s="7"/>
@@ -12947,87 +13324,93 @@
       <c r="CM17" s="2"/>
       <c r="CN17" s="2"/>
       <c r="CO17" s="2"/>
-      <c r="CP17" s="8">
+      <c r="CP17" s="4">
         <v>42677</v>
       </c>
       <c r="CQ17" s="2"/>
       <c r="CR17" s="2"/>
       <c r="CS17" s="2"/>
       <c r="CT17" s="2"/>
-      <c r="CU17" s="8">
+      <c r="CU17" s="4">
         <v>42702</v>
       </c>
       <c r="CV17" s="2"/>
-      <c r="CW17" s="8">
+      <c r="CW17" s="4">
         <v>42705</v>
       </c>
-      <c r="CX17" s="8">
+      <c r="CX17" s="4">
         <v>42712</v>
       </c>
-      <c r="CY17" s="8">
+      <c r="CY17" s="4">
         <v>42719</v>
       </c>
-      <c r="CZ17" s="8">
+      <c r="CZ17" s="4">
         <v>42740</v>
       </c>
       <c r="DA17" s="2"/>
-      <c r="DB17" s="2">
-        <f>36.49+5.09-36.49</f>
-        <v>5.089999999999996</v>
+      <c r="DB17" s="4">
+        <v>42796</v>
       </c>
       <c r="DC17" s="2"/>
       <c r="DD17" s="2"/>
       <c r="DE17" s="2"/>
       <c r="DF17" s="2"/>
       <c r="DG17" s="2"/>
+      <c r="DH17" s="2"/>
+      <c r="DI17" s="2"/>
+      <c r="DJ17" s="7">
+        <f>5.09+5.38</f>
+        <v>10.47</v>
+      </c>
+      <c r="DK17" s="2"/>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <v>42016</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="3">
+      <c r="J18" s="8">
         <v>42016</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="3">
+      <c r="M18" s="8">
         <v>42094</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="3">
+      <c r="P18" s="8">
         <v>42094</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="3">
+      <c r="U18" s="8">
         <v>42094</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-      <c r="Y18" s="3">
+      <c r="Y18" s="8">
         <v>42131</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
-      <c r="AB18" s="3">
+      <c r="AB18" s="8">
         <v>42159</v>
       </c>
       <c r="AC18" s="7"/>
-      <c r="AD18" s="3">
+      <c r="AD18" s="8">
         <v>42334</v>
       </c>
       <c r="AE18" s="7"/>
@@ -13049,24 +13432,24 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="3">
+      <c r="AX18" s="8">
         <v>42348</v>
       </c>
       <c r="AY18" s="7"/>
-      <c r="AZ18" s="3">
+      <c r="AZ18" s="8">
         <v>42390</v>
       </c>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
       <c r="BC18" s="2"/>
       <c r="BD18" s="7"/>
-      <c r="BE18" s="3">
+      <c r="BE18" s="8">
         <v>42418</v>
       </c>
       <c r="BF18" s="7"/>
       <c r="BG18" s="7"/>
       <c r="BH18" s="7"/>
-      <c r="BI18" s="3">
+      <c r="BI18" s="8">
         <v>42432</v>
       </c>
       <c r="BJ18" s="7"/>
@@ -13074,25 +13457,25 @@
       <c r="BL18" s="6"/>
       <c r="BM18" s="6"/>
       <c r="BN18" s="6"/>
-      <c r="BO18" s="3">
+      <c r="BO18" s="8">
         <v>42485</v>
       </c>
       <c r="BP18" s="6"/>
       <c r="BQ18" s="6"/>
       <c r="BR18" s="6"/>
-      <c r="BS18" s="3">
+      <c r="BS18" s="8">
         <v>42495</v>
       </c>
       <c r="BT18" s="7"/>
-      <c r="BU18" s="3">
+      <c r="BU18" s="8">
         <v>42495</v>
       </c>
       <c r="BV18" s="7"/>
       <c r="BW18" s="7"/>
-      <c r="BX18" s="8">
+      <c r="BX18" s="4">
         <v>42513</v>
       </c>
-      <c r="BY18" s="8">
+      <c r="BY18" s="4">
         <v>42586</v>
       </c>
       <c r="BZ18" s="7"/>
@@ -13104,105 +13487,110 @@
       <c r="CF18" s="7"/>
       <c r="CG18" s="7"/>
       <c r="CH18" s="7"/>
-      <c r="CI18" s="8">
+      <c r="CI18" s="4">
         <v>42614</v>
       </c>
       <c r="CJ18" s="7"/>
       <c r="CK18" s="2"/>
-      <c r="CL18" s="8">
+      <c r="CL18" s="4">
         <v>42649</v>
       </c>
       <c r="CM18" s="2"/>
       <c r="CN18" s="2"/>
       <c r="CO18" s="2"/>
       <c r="CP18" s="2"/>
-      <c r="CQ18" s="8">
+      <c r="CQ18" s="4">
         <v>42677</v>
       </c>
       <c r="CR18" s="2"/>
       <c r="CS18" s="2"/>
       <c r="CT18" s="2"/>
-      <c r="CU18" s="8">
+      <c r="CU18" s="4">
         <v>42705</v>
       </c>
       <c r="CV18" s="2"/>
       <c r="CW18" s="2"/>
-      <c r="CX18" s="8">
+      <c r="CX18" s="4">
         <v>42705</v>
       </c>
       <c r="CY18" s="2"/>
       <c r="CZ18" s="2"/>
       <c r="DA18" s="2"/>
-      <c r="DB18" s="8">
+      <c r="DB18" s="4">
         <v>42740</v>
       </c>
-      <c r="DC18" s="8">
+      <c r="DC18" s="4">
         <v>42768</v>
       </c>
       <c r="DD18" s="2"/>
       <c r="DE18" s="2"/>
-      <c r="DF18" s="8">
+      <c r="DF18" s="4">
         <v>42775</v>
       </c>
-      <c r="DG18" s="2">
-        <f>21.23+5.38</f>
-        <v>26.61</v>
-      </c>
+      <c r="DG18" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DH18" s="2"/>
+      <c r="DI18" s="2"/>
+      <c r="DJ18" s="4">
+        <v>42806</v>
+      </c>
+      <c r="DK18" s="2"/>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>41980</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="3">
+      <c r="G19" s="8">
         <v>41991</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="8">
         <v>42025</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="3">
+      <c r="K19" s="8">
         <v>42025</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="8">
         <v>42048</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="3">
+      <c r="N19" s="8">
         <v>42048</v>
       </c>
       <c r="O19" s="6"/>
-      <c r="P19" s="3">
+      <c r="P19" s="8">
         <v>42080</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="3">
+      <c r="T19" s="8">
         <v>42093</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="3">
+      <c r="W19" s="8">
         <v>42107</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="8">
         <v>42124</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="3">
+      <c r="AA19" s="8">
         <v>42152</v>
       </c>
       <c r="AB19" s="7"/>
-      <c r="AC19" s="3">
+      <c r="AC19" s="8">
         <v>42152</v>
       </c>
       <c r="AD19" s="7"/>
@@ -13287,47 +13675,51 @@
       <c r="DE19" s="2"/>
       <c r="DF19" s="2"/>
       <c r="DG19" s="2"/>
+      <c r="DH19" s="2"/>
+      <c r="DI19" s="2"/>
+      <c r="DJ19" s="7"/>
+      <c r="DK19" s="2"/>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="3">
+      <c r="D20" s="8">
         <v>41991</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="8">
         <v>41976</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="8">
         <v>41991</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
         <v>42040</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="8">
         <v>42040</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="8">
         <v>42040</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="3">
+      <c r="N20" s="8">
         <v>42093</v>
       </c>
       <c r="O20" s="6"/>
-      <c r="P20" s="3">
+      <c r="P20" s="8">
         <v>42093</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="2"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="3">
+      <c r="U20" s="8">
         <v>42093</v>
       </c>
       <c r="V20" s="2"/>
@@ -13361,7 +13753,7 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="6"/>
       <c r="AZ20" s="6"/>
-      <c r="BA20" s="3">
+      <c r="BA20" s="8">
         <v>42411</v>
       </c>
       <c r="BB20" s="6"/>
@@ -13370,7 +13762,7 @@
       <c r="BE20" s="7"/>
       <c r="BF20" s="7"/>
       <c r="BG20" s="7"/>
-      <c r="BH20" s="3">
+      <c r="BH20" s="8">
         <v>42460</v>
       </c>
       <c r="BI20" s="7"/>
@@ -13379,7 +13771,7 @@
       <c r="BL20" s="6"/>
       <c r="BM20" s="6"/>
       <c r="BN20" s="6"/>
-      <c r="BO20" s="3">
+      <c r="BO20" s="8">
         <v>42485</v>
       </c>
       <c r="BP20" s="6"/>
@@ -13417,7 +13809,7 @@
       <c r="CV20" s="7"/>
       <c r="CW20" s="7"/>
       <c r="CX20" s="7"/>
-      <c r="CY20" s="8">
+      <c r="CY20" s="4">
         <v>42712</v>
       </c>
       <c r="CZ20" s="2"/>
@@ -13427,14 +13819,17 @@
       <c r="DD20" s="2"/>
       <c r="DE20" s="2"/>
       <c r="DF20" s="2"/>
-      <c r="DG20" s="2">
-        <f>5.38</f>
-        <v>5.38</v>
-      </c>
+      <c r="DG20" s="4">
+        <v>42775</v>
+      </c>
+      <c r="DH20" s="2"/>
+      <c r="DI20" s="2"/>
+      <c r="DJ20" s="7"/>
+      <c r="DK20" s="2"/>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" t="s" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -13496,44 +13891,44 @@
       <c r="BG21" s="7"/>
       <c r="BH21" s="7"/>
       <c r="BI21" s="7"/>
-      <c r="BJ21" s="3">
+      <c r="BJ21" s="8">
         <v>42432</v>
       </c>
-      <c r="BK21" s="3">
+      <c r="BK21" s="8">
         <v>42432</v>
       </c>
-      <c r="BL21" s="3">
+      <c r="BL21" s="8">
         <v>42446</v>
       </c>
-      <c r="BM21" s="3">
+      <c r="BM21" s="8">
         <v>42453</v>
       </c>
-      <c r="BN21" s="3">
+      <c r="BN21" s="8">
         <v>42460</v>
       </c>
-      <c r="BO21" s="3">
+      <c r="BO21" s="8">
         <v>42467</v>
       </c>
-      <c r="BP21" s="3">
+      <c r="BP21" s="8">
         <v>42485</v>
       </c>
       <c r="BQ21" s="2"/>
       <c r="BR21" s="2"/>
-      <c r="BS21" s="3">
+      <c r="BS21" s="8">
         <v>42494</v>
       </c>
-      <c r="BT21" s="3">
+      <c r="BT21" s="8">
         <v>42495</v>
       </c>
       <c r="BU21" s="6"/>
-      <c r="BV21" s="3">
+      <c r="BV21" s="8">
         <v>42509</v>
       </c>
-      <c r="BW21" s="8">
+      <c r="BW21" s="4">
         <v>42523</v>
       </c>
       <c r="BX21" s="6"/>
-      <c r="BY21" s="8">
+      <c r="BY21" s="4">
         <v>42545</v>
       </c>
       <c r="BZ21" s="6"/>
@@ -13543,65 +13938,76 @@
       <c r="CD21" s="6"/>
       <c r="CE21" s="6"/>
       <c r="CF21" s="6"/>
-      <c r="CG21" s="8">
+      <c r="CG21" s="4">
         <v>42572</v>
       </c>
-      <c r="CH21" s="8">
+      <c r="CH21" s="4">
         <v>42586</v>
       </c>
-      <c r="CI21" s="8">
+      <c r="CI21" s="4">
         <v>42614</v>
       </c>
       <c r="CJ21" s="6"/>
       <c r="CK21" s="6"/>
-      <c r="CL21" s="8">
+      <c r="CL21" s="4">
         <v>42621</v>
       </c>
-      <c r="CM21" s="8">
+      <c r="CM21" s="4">
         <v>42628</v>
       </c>
-      <c r="CN21" s="8">
+      <c r="CN21" s="4">
         <v>42649</v>
       </c>
       <c r="CO21" s="6"/>
       <c r="CP21" s="6"/>
       <c r="CQ21" s="2"/>
-      <c r="CR21" s="8">
+      <c r="CR21" s="4">
         <v>42659</v>
       </c>
-      <c r="CS21" s="8">
+      <c r="CS21" s="4">
         <v>42670</v>
       </c>
-      <c r="CT21" s="8">
+      <c r="CT21" s="4">
         <v>42702</v>
       </c>
       <c r="CU21" s="7"/>
       <c r="CV21" s="7"/>
-      <c r="CW21" s="8">
+      <c r="CW21" s="4">
         <v>42695</v>
       </c>
-      <c r="CX21" s="8">
+      <c r="CX21" s="4">
         <v>42740</v>
       </c>
       <c r="CY21" s="2"/>
       <c r="CZ21" s="2"/>
       <c r="DA21" s="2"/>
-      <c r="DB21" s="8">
+      <c r="DB21" s="4">
         <v>42754</v>
       </c>
       <c r="DC21" s="2"/>
-      <c r="DD21" s="8">
+      <c r="DD21" s="4">
         <v>42761</v>
       </c>
-      <c r="DE21" s="8">
+      <c r="DE21" s="4">
         <v>42768</v>
       </c>
       <c r="DF21" s="2"/>
       <c r="DG21" s="2"/>
+      <c r="DH21" s="4">
+        <v>42789</v>
+      </c>
+      <c r="DI21" s="4">
+        <v>42796</v>
+      </c>
+      <c r="DJ21" s="7">
+        <f>12.55+5.38</f>
+        <v>17.93</v>
+      </c>
+      <c r="DK21" s="2"/>
     </row>
     <row r="22" ht="13.65" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -13627,7 +14033,7 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="Z22" s="3">
+      <c r="Z22" s="8">
         <v>42243</v>
       </c>
       <c r="AA22" s="7"/>
@@ -13641,13 +14047,13 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-      <c r="AL22" s="3">
+      <c r="AL22" s="8">
         <v>42271</v>
       </c>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
-      <c r="AP22" s="3">
+      <c r="AP22" s="8">
         <v>42453</v>
       </c>
       <c r="AQ22" s="2"/>
@@ -13673,7 +14079,7 @@
       <c r="BK22" s="7"/>
       <c r="BL22" s="6"/>
       <c r="BM22" s="6"/>
-      <c r="BN22" s="3">
+      <c r="BN22" s="8">
         <v>42466</v>
       </c>
       <c r="BO22" s="6"/>
@@ -13721,10 +14127,14 @@
       <c r="DE22" s="2"/>
       <c r="DF22" s="2"/>
       <c r="DG22" s="2"/>
+      <c r="DH22" s="2"/>
+      <c r="DI22" s="2"/>
+      <c r="DJ22" s="7"/>
+      <c r="DK22" s="2"/>
     </row>
     <row r="23" ht="13.65" customHeight="1">
       <c r="A23" t="s" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -13743,54 +14153,54 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="3">
+      <c r="S23" s="8">
         <v>42075</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="8">
         <v>42082</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="3">
+      <c r="X23" s="8">
         <v>42110</v>
       </c>
       <c r="Y23" s="7"/>
-      <c r="Z23" s="3">
+      <c r="Z23" s="8">
         <v>42124</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="8">
         <v>42152</v>
       </c>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="3">
+      <c r="AC23" s="8">
         <v>42159</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="8">
         <v>42166</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="8">
         <v>42187</v>
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="6"/>
-      <c r="AH23" s="3">
+      <c r="AH23" s="8">
         <v>42201</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI23" s="8">
         <v>42250</v>
       </c>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" s="3">
+      <c r="AM23" s="8">
         <v>42264</v>
       </c>
       <c r="AN23" s="6"/>
-      <c r="AO23" s="3">
+      <c r="AO23" s="8">
         <v>42271</v>
       </c>
-      <c r="AP23" s="3">
+      <c r="AP23" s="8">
         <v>42271</v>
       </c>
       <c r="AQ23" s="7"/>
@@ -13865,10 +14275,14 @@
       <c r="DE23" s="2"/>
       <c r="DF23" s="2"/>
       <c r="DG23" s="2"/>
+      <c r="DH23" s="2"/>
+      <c r="DI23" s="2"/>
+      <c r="DJ23" s="7"/>
+      <c r="DK23" s="2"/>
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -13894,7 +14308,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="3">
+      <c r="Z24" s="8">
         <v>42120</v>
       </c>
       <c r="AA24" s="7"/>
@@ -13912,17 +14326,17 @@
       <c r="AM24" s="7"/>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
-      <c r="AP24" s="3">
+      <c r="AP24" s="8">
         <v>42272</v>
       </c>
-      <c r="AQ24" s="3"/>
+      <c r="AQ24" s="8"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
       <c r="AY24" s="6"/>
       <c r="AZ24" s="6"/>
       <c r="BA24" s="6"/>
@@ -13984,84 +14398,88 @@
       <c r="DE24" s="2"/>
       <c r="DF24" s="2"/>
       <c r="DG24" s="2"/>
+      <c r="DH24" s="2"/>
+      <c r="DI24" s="6"/>
+      <c r="DJ24" s="6"/>
+      <c r="DK24" s="2"/>
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="3">
+      <c r="F25" s="8">
         <v>42026</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="8">
         <v>41991</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="8">
         <v>42026</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="8">
         <v>42026</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="8">
         <v>42026</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="3">
+      <c r="L25" s="8">
         <v>42061</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="8">
         <v>42061</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="3">
+      <c r="Q25" s="8">
         <v>42061</v>
       </c>
       <c r="R25" s="7"/>
-      <c r="S25" s="3">
+      <c r="S25" s="8">
         <v>42096</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="3">
+      <c r="V25" s="8">
         <v>42110</v>
       </c>
       <c r="W25" s="7"/>
-      <c r="X25" s="3">
+      <c r="X25" s="8">
         <v>42117</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="8">
         <v>42131</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="8">
         <v>42131</v>
       </c>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="3">
+      <c r="AB25" s="8">
         <v>42152</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC25" s="8">
         <v>42159</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="8">
         <v>42166</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE25" s="8">
         <v>42201</v>
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
       <c r="AH25" s="7"/>
-      <c r="AI25" s="3">
+      <c r="AI25" s="8">
         <v>42243</v>
       </c>
       <c r="AJ25" s="6"/>
       <c r="AK25" s="6"/>
-      <c r="AL25" s="3">
+      <c r="AL25" s="8">
         <v>42292</v>
       </c>
       <c r="AM25" s="7"/>
@@ -14069,7 +14487,7 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
-      <c r="AR25" s="3">
+      <c r="AR25" s="8">
         <v>42334</v>
       </c>
       <c r="AS25" s="2"/>
@@ -14077,55 +14495,55 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
       <c r="AW25" s="6"/>
-      <c r="AX25" s="3">
+      <c r="AX25" s="8">
         <v>42341</v>
       </c>
-      <c r="AY25" s="3">
+      <c r="AY25" s="8">
         <v>42355</v>
       </c>
       <c r="AZ25" s="6"/>
-      <c r="BA25" s="3">
+      <c r="BA25" s="8">
         <v>42367</v>
       </c>
-      <c r="BB25" s="3">
+      <c r="BB25" s="8">
         <v>42390</v>
       </c>
       <c r="BC25" s="2"/>
       <c r="BD25" s="7"/>
-      <c r="BE25" s="3">
+      <c r="BE25" s="8">
         <v>42397</v>
       </c>
-      <c r="BF25" s="3">
+      <c r="BF25" s="8">
         <v>42411</v>
       </c>
       <c r="BG25" s="7"/>
-      <c r="BH25" s="3">
+      <c r="BH25" s="8">
         <v>42425</v>
       </c>
       <c r="BI25" s="7"/>
-      <c r="BJ25" s="3">
+      <c r="BJ25" s="8">
         <v>42432</v>
       </c>
-      <c r="BK25" s="3">
+      <c r="BK25" s="8">
         <v>42439</v>
       </c>
-      <c r="BL25" s="3">
+      <c r="BL25" s="8">
         <v>42446</v>
       </c>
-      <c r="BM25" s="3">
+      <c r="BM25" s="8">
         <v>42467</v>
       </c>
       <c r="BN25" s="6"/>
       <c r="BO25" s="6"/>
-      <c r="BP25" s="3">
+      <c r="BP25" s="8">
         <v>42481</v>
       </c>
       <c r="BQ25" s="6"/>
-      <c r="BR25" s="3">
+      <c r="BR25" s="8">
         <v>42494</v>
       </c>
       <c r="BS25" s="6"/>
-      <c r="BT25" s="8">
+      <c r="BT25" s="4">
         <v>42551</v>
       </c>
       <c r="BU25" s="7"/>
@@ -14137,19 +14555,19 @@
       <c r="CA25" s="7"/>
       <c r="CB25" s="7"/>
       <c r="CC25" s="7"/>
-      <c r="CD25" s="8">
+      <c r="CD25" s="4">
         <v>42558</v>
       </c>
       <c r="CE25" s="7"/>
-      <c r="CF25" s="8">
+      <c r="CF25" s="4">
         <v>42565</v>
       </c>
-      <c r="CG25" s="8">
+      <c r="CG25" s="4">
         <v>42593</v>
       </c>
       <c r="CH25" s="7"/>
       <c r="CI25" s="7"/>
-      <c r="CJ25" s="8">
+      <c r="CJ25" s="4">
         <v>42621</v>
       </c>
       <c r="CK25" s="2"/>
@@ -14178,10 +14596,14 @@
       <c r="DE25" s="2"/>
       <c r="DF25" s="2"/>
       <c r="DG25" s="2"/>
+      <c r="DH25" s="2"/>
+      <c r="DI25" s="2"/>
+      <c r="DJ25" s="2"/>
+      <c r="DK25" s="2"/>
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" t="s" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -14207,7 +14629,7 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
-      <c r="Z26" s="3">
+      <c r="Z26" s="8">
         <v>42120</v>
       </c>
       <c r="AA26" s="7"/>
@@ -14295,10 +14717,14 @@
       <c r="DE26" s="2"/>
       <c r="DF26" s="2"/>
       <c r="DG26" s="2"/>
+      <c r="DH26" s="2"/>
+      <c r="DI26" s="2"/>
+      <c r="DJ26" s="2"/>
+      <c r="DK26" s="2"/>
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" t="s" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -14413,10 +14839,14 @@
       <c r="DE27" s="2"/>
       <c r="DF27" s="2"/>
       <c r="DG27" s="2"/>
+      <c r="DH27" s="2"/>
+      <c r="DI27" s="2"/>
+      <c r="DJ27" s="2"/>
+      <c r="DK27" s="2"/>
     </row>
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -14531,40 +14961,44 @@
       <c r="DE28" s="2"/>
       <c r="DF28" s="2"/>
       <c r="DG28" s="2"/>
+      <c r="DH28" s="2"/>
+      <c r="DI28" s="2"/>
+      <c r="DJ28" s="2"/>
+      <c r="DK28" s="2"/>
     </row>
     <row r="29" ht="13.65" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="3">
+      <c r="G29" s="8">
         <v>42032</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="3">
+      <c r="I29" s="8">
         <v>42032</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="8">
         <v>42032</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="3">
+      <c r="M29" s="8">
         <v>42092</v>
       </c>
       <c r="N29" s="7"/>
-      <c r="O29" s="3">
+      <c r="O29" s="8">
         <v>42092</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="3">
+      <c r="Q29" s="8">
         <v>42092</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="8">
         <v>42092</v>
       </c>
       <c r="S29" s="6"/>
@@ -14621,38 +15055,38 @@
       <c r="BR29" s="7"/>
       <c r="BS29" s="7"/>
       <c r="BT29" s="2"/>
-      <c r="BU29" s="3">
+      <c r="BU29" s="8">
         <v>42502</v>
       </c>
-      <c r="BV29" s="3">
+      <c r="BV29" s="8">
         <v>42513</v>
       </c>
       <c r="BW29" s="2"/>
-      <c r="BX29" s="8">
+      <c r="BX29" s="4">
         <v>42523</v>
       </c>
-      <c r="BY29" s="8">
+      <c r="BY29" s="4">
         <v>42528</v>
       </c>
       <c r="BZ29" s="6"/>
-      <c r="CA29" s="8">
+      <c r="CA29" s="4">
         <v>42530</v>
       </c>
-      <c r="CB29" s="8">
+      <c r="CB29" s="4">
         <v>42544</v>
       </c>
-      <c r="CC29" s="8">
+      <c r="CC29" s="4">
         <v>42551</v>
       </c>
-      <c r="CD29" s="8">
+      <c r="CD29" s="4">
         <v>42556</v>
       </c>
-      <c r="CE29" s="8">
+      <c r="CE29" s="4">
         <v>42572</v>
       </c>
       <c r="CF29" s="6"/>
       <c r="CG29" s="6"/>
-      <c r="CH29" s="8">
+      <c r="CH29" s="4">
         <v>42607</v>
       </c>
       <c r="CI29" s="6"/>
@@ -14661,61 +15095,65 @@
         <f>37.77-6+2</f>
         <v>33.77</v>
       </c>
-      <c r="CL29" s="8">
+      <c r="CL29" s="4">
         <v>42621</v>
       </c>
-      <c r="CM29" s="8">
+      <c r="CM29" s="4">
         <v>42628</v>
       </c>
-      <c r="CN29" s="8">
+      <c r="CN29" s="4">
         <v>42635</v>
       </c>
-      <c r="CO29" s="8">
+      <c r="CO29" s="4">
         <v>75520</v>
       </c>
       <c r="CP29" s="7"/>
-      <c r="CQ29" s="8">
+      <c r="CQ29" s="4">
         <v>42656</v>
       </c>
-      <c r="CR29" s="8">
+      <c r="CR29" s="4">
         <v>42663</v>
       </c>
-      <c r="CS29" s="8">
+      <c r="CS29" s="4">
         <v>42677</v>
       </c>
       <c r="CT29" s="2"/>
-      <c r="CU29" s="8">
+      <c r="CU29" s="4">
         <v>42684</v>
       </c>
-      <c r="CV29" s="8">
+      <c r="CV29" s="4">
         <v>42707</v>
       </c>
       <c r="CW29" s="2"/>
       <c r="CX29" s="2"/>
-      <c r="CY29" s="8">
+      <c r="CY29" s="4">
         <v>42732</v>
       </c>
       <c r="CZ29" s="2"/>
-      <c r="DA29" s="8">
+      <c r="DA29" s="4">
         <v>42740</v>
       </c>
-      <c r="DB29" s="8">
+      <c r="DB29" s="4">
         <v>42768</v>
       </c>
       <c r="DC29" s="2"/>
       <c r="DD29" s="2"/>
       <c r="DE29" s="2"/>
-      <c r="DF29" s="8">
+      <c r="DF29" s="4">
         <v>42775</v>
       </c>
       <c r="DG29" s="2">
-        <f t="shared" si="8"/>
+        <f>19.73+5.38</f>
         <v>25.11</v>
       </c>
+      <c r="DH29" s="2"/>
+      <c r="DI29" s="6"/>
+      <c r="DJ29" s="6"/>
+      <c r="DK29" s="2"/>
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" t="s" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -14744,39 +15182,39 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="3">
+      <c r="AC30" s="8">
         <v>42159</v>
       </c>
-      <c r="AD30" s="3">
+      <c r="AD30" s="8">
         <v>42173</v>
       </c>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="3">
+      <c r="AF30" s="8">
         <v>42187</v>
       </c>
       <c r="AG30" s="6"/>
-      <c r="AH30" s="3">
+      <c r="AH30" s="8">
         <v>42222</v>
       </c>
       <c r="AI30" s="6"/>
-      <c r="AJ30" s="3">
+      <c r="AJ30" s="8">
         <v>42236</v>
       </c>
-      <c r="AK30" s="3">
+      <c r="AK30" s="8">
         <v>42243</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AL30" s="8">
         <v>42264</v>
       </c>
       <c r="AM30" s="6"/>
       <c r="AN30" s="2"/>
-      <c r="AO30" s="3">
+      <c r="AO30" s="8">
         <v>42271</v>
       </c>
-      <c r="AP30" s="3">
+      <c r="AP30" s="8">
         <v>42278</v>
       </c>
-      <c r="AQ30" s="3">
+      <c r="AQ30" s="8">
         <v>42310</v>
       </c>
       <c r="AR30" s="6"/>
@@ -14784,7 +15222,7 @@
       <c r="AT30" s="2"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
-      <c r="AW30" s="3">
+      <c r="AW30" s="8">
         <v>42376</v>
       </c>
       <c r="AX30" s="6"/>
@@ -14792,7 +15230,7 @@
       <c r="AZ30" s="6"/>
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
-      <c r="BC30" s="3">
+      <c r="BC30" s="8">
         <v>42460</v>
       </c>
       <c r="BD30" s="7"/>
@@ -14806,7 +15244,7 @@
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
       <c r="BN30" s="2"/>
-      <c r="BO30" s="3">
+      <c r="BO30" s="8">
         <v>42509</v>
       </c>
       <c r="BP30" s="2"/>
@@ -14816,22 +15254,22 @@
       <c r="BT30" s="6"/>
       <c r="BU30" s="6"/>
       <c r="BV30" s="6"/>
-      <c r="BW30" s="3">
+      <c r="BW30" s="8">
         <v>42513</v>
       </c>
-      <c r="BX30" s="8">
+      <c r="BX30" s="4">
         <v>42544</v>
       </c>
       <c r="BY30" s="6"/>
       <c r="BZ30" s="6"/>
       <c r="CA30" s="6"/>
       <c r="CB30" s="2"/>
-      <c r="CC30" s="8">
+      <c r="CC30" s="4">
         <v>42558</v>
       </c>
       <c r="CD30" s="6"/>
       <c r="CE30" s="6"/>
-      <c r="CF30" s="8">
+      <c r="CF30" s="4">
         <v>42558</v>
       </c>
       <c r="CG30" s="6"/>
@@ -14839,7 +15277,7 @@
       <c r="CI30" s="6"/>
       <c r="CJ30" s="6"/>
       <c r="CK30" s="7"/>
-      <c r="CL30" s="8">
+      <c r="CL30" s="4">
         <v>42702</v>
       </c>
       <c r="CM30" s="7"/>
@@ -14852,12 +15290,12 @@
       <c r="CT30" s="6"/>
       <c r="CU30" s="6"/>
       <c r="CV30" s="6"/>
-      <c r="CW30" s="8">
+      <c r="CW30" s="4">
         <v>42719</v>
       </c>
       <c r="CX30" s="6"/>
       <c r="CY30" s="6"/>
-      <c r="CZ30" s="8">
+      <c r="CZ30" s="4">
         <v>42754</v>
       </c>
       <c r="DA30" s="6"/>
@@ -14870,10 +15308,14 @@
       <c r="DE30" s="2"/>
       <c r="DF30" s="2"/>
       <c r="DG30" s="2"/>
+      <c r="DH30" s="6"/>
+      <c r="DI30" s="6"/>
+      <c r="DJ30" s="6"/>
+      <c r="DK30" s="2"/>
     </row>
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -14901,49 +15343,49 @@
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
-      <c r="AB31" s="3">
+      <c r="AB31" s="8">
         <v>42152</v>
       </c>
-      <c r="AC31" s="3">
+      <c r="AC31" s="8">
         <v>42159</v>
       </c>
-      <c r="AD31" s="3">
+      <c r="AD31" s="8">
         <v>42180</v>
       </c>
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
-      <c r="AG31" s="3">
+      <c r="AG31" s="8">
         <v>42187</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AH31" s="8">
         <v>42201</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI31" s="8">
         <v>42257</v>
       </c>
       <c r="AJ31" s="6"/>
       <c r="AK31" s="6"/>
       <c r="AL31" s="6"/>
       <c r="AM31" s="6"/>
-      <c r="AN31" s="3">
+      <c r="AN31" s="8">
         <v>42264</v>
       </c>
-      <c r="AO31" s="3">
+      <c r="AO31" s="8">
         <v>42271</v>
       </c>
-      <c r="AP31" s="3">
+      <c r="AP31" s="8">
         <v>42278</v>
       </c>
-      <c r="AQ31" s="3">
+      <c r="AQ31" s="8">
         <v>42292</v>
       </c>
-      <c r="AR31" s="3">
+      <c r="AR31" s="8">
         <v>42313</v>
       </c>
       <c r="AS31" s="6"/>
       <c r="AT31" s="2"/>
       <c r="AU31" s="6"/>
-      <c r="AV31" s="3">
+      <c r="AV31" s="8">
         <v>42367</v>
       </c>
       <c r="AW31" s="2"/>
@@ -14951,19 +15393,19 @@
       <c r="AY31" s="6"/>
       <c r="AZ31" s="6"/>
       <c r="BA31" s="6"/>
-      <c r="BB31" s="3">
+      <c r="BB31" s="8">
         <v>42376</v>
       </c>
-      <c r="BC31" s="3">
+      <c r="BC31" s="8">
         <v>42383</v>
       </c>
-      <c r="BD31" s="3">
+      <c r="BD31" s="8">
         <v>42390</v>
       </c>
-      <c r="BE31" s="3">
+      <c r="BE31" s="8">
         <v>42397</v>
       </c>
-      <c r="BF31" s="3">
+      <c r="BF31" s="8">
         <v>42428</v>
       </c>
       <c r="BG31" s="6"/>
@@ -14972,100 +15414,108 @@
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="2"/>
-      <c r="BM31" s="3">
+      <c r="BM31" s="8">
         <v>42474</v>
       </c>
       <c r="BN31" s="2"/>
       <c r="BO31" s="2"/>
       <c r="BP31" s="2"/>
-      <c r="BQ31" s="3">
+      <c r="BQ31" s="8">
         <v>42481</v>
       </c>
-      <c r="BR31" s="3">
+      <c r="BR31" s="8">
         <v>42481</v>
       </c>
-      <c r="BS31" s="3">
+      <c r="BS31" s="8">
         <v>42495</v>
       </c>
       <c r="BT31" s="6"/>
-      <c r="BU31" s="3">
+      <c r="BU31" s="8">
         <v>42513</v>
       </c>
       <c r="BV31" s="6"/>
       <c r="BW31" s="6"/>
-      <c r="BX31" s="8">
+      <c r="BX31" s="4">
         <v>42513</v>
       </c>
-      <c r="BY31" s="8">
+      <c r="BY31" s="4">
         <v>42527</v>
       </c>
-      <c r="BZ31" s="8">
+      <c r="BZ31" s="4">
         <v>42544</v>
       </c>
       <c r="CA31" s="6"/>
       <c r="CB31" s="2"/>
-      <c r="CC31" s="8">
+      <c r="CC31" s="4">
         <v>42551</v>
       </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="4">
         <v>42572</v>
       </c>
       <c r="CE31" s="6"/>
       <c r="CF31" s="6"/>
       <c r="CG31" s="6"/>
-      <c r="CH31" s="8">
+      <c r="CH31" s="4">
         <v>42607</v>
       </c>
       <c r="CI31" s="6"/>
       <c r="CJ31" s="6"/>
-      <c r="CK31" s="8">
+      <c r="CK31" s="4">
         <v>42614</v>
       </c>
       <c r="CL31" s="2">
         <v>6690041</v>
       </c>
       <c r="CM31" s="7"/>
-      <c r="CN31" s="8">
+      <c r="CN31" s="4">
         <v>42635</v>
       </c>
-      <c r="CO31" s="8">
+      <c r="CO31" s="4">
         <v>42652</v>
       </c>
       <c r="CP31" s="7"/>
       <c r="CQ31" s="2"/>
       <c r="CR31" s="6"/>
-      <c r="CS31" s="8">
+      <c r="CS31" s="4">
         <v>42677</v>
       </c>
       <c r="CT31" s="6"/>
-      <c r="CU31" s="8">
+      <c r="CU31" s="4">
         <v>42719</v>
       </c>
       <c r="CV31" s="6"/>
       <c r="CW31" s="6"/>
       <c r="CX31" s="6"/>
       <c r="CY31" s="6"/>
-      <c r="CZ31" s="8">
+      <c r="CZ31" s="4">
         <v>42747</v>
       </c>
       <c r="DA31" s="6"/>
       <c r="DB31" s="6"/>
-      <c r="DC31" s="8">
+      <c r="DC31" s="4">
         <v>42754</v>
       </c>
-      <c r="DD31" s="8">
+      <c r="DD31" s="4">
         <v>42775</v>
       </c>
       <c r="DE31" s="6"/>
       <c r="DF31" s="6"/>
-      <c r="DG31" s="2">
-        <f>28.61+5.38</f>
-        <v>33.99</v>
-      </c>
+      <c r="DG31" s="4">
+        <v>42782</v>
+      </c>
+      <c r="DH31" s="4">
+        <v>42789</v>
+      </c>
+      <c r="DI31" s="2">
+        <f>39.37+7.17</f>
+        <v>46.54</v>
+      </c>
+      <c r="DJ31" s="6"/>
+      <c r="DK31" s="2"/>
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -15138,26 +15588,26 @@
       <c r="BR32" s="7"/>
       <c r="BS32" s="7"/>
       <c r="BT32" s="6"/>
-      <c r="BU32" s="3">
+      <c r="BU32" s="8">
         <v>42496</v>
       </c>
       <c r="BV32" s="6"/>
-      <c r="BW32" s="8">
+      <c r="BW32" s="4">
         <v>42523</v>
       </c>
       <c r="BX32" s="6"/>
-      <c r="BY32" s="8">
+      <c r="BY32" s="4">
         <v>42528</v>
       </c>
       <c r="BZ32" s="6"/>
-      <c r="CA32" s="8">
+      <c r="CA32" s="4">
         <v>42530</v>
       </c>
-      <c r="CB32" s="8">
+      <c r="CB32" s="4">
         <v>42551</v>
       </c>
       <c r="CC32" s="6"/>
-      <c r="CD32" s="8">
+      <c r="CD32" s="4">
         <v>42565</v>
       </c>
       <c r="CE32" s="6"/>
@@ -15168,16 +15618,16 @@
       </c>
       <c r="CH32" s="6"/>
       <c r="CI32" s="6"/>
-      <c r="CJ32" s="8">
+      <c r="CJ32" s="4">
         <v>42594</v>
       </c>
       <c r="CK32" s="6"/>
       <c r="CL32" s="6"/>
       <c r="CM32" s="6"/>
-      <c r="CN32" s="8">
+      <c r="CN32" s="4">
         <v>42635</v>
       </c>
-      <c r="CO32" s="8">
+      <c r="CO32" s="4">
         <v>42705</v>
       </c>
       <c r="CP32" s="6"/>
@@ -15188,15 +15638,15 @@
       <c r="CU32" s="7"/>
       <c r="CV32" s="7"/>
       <c r="CW32" s="7"/>
-      <c r="CX32" s="8">
+      <c r="CX32" s="4">
         <v>42712</v>
       </c>
-      <c r="CY32" s="8">
+      <c r="CY32" s="4">
         <v>42740</v>
       </c>
       <c r="CZ32" s="6"/>
       <c r="DA32" s="6"/>
-      <c r="DB32" s="8">
+      <c r="DB32" s="4">
         <v>42747</v>
       </c>
       <c r="DC32" s="2">
@@ -15207,10 +15657,14 @@
       <c r="DE32" s="6"/>
       <c r="DF32" s="6"/>
       <c r="DG32" s="6"/>
+      <c r="DH32" s="6"/>
+      <c r="DI32" s="6"/>
+      <c r="DJ32" s="6"/>
+      <c r="DK32" s="2"/>
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -15252,10 +15706,10 @@
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
       <c r="AO33" s="7"/>
-      <c r="AP33" s="3">
+      <c r="AP33" s="8">
         <v>42272</v>
       </c>
-      <c r="AQ33" s="3"/>
+      <c r="AQ33" s="8"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
       <c r="AT33" s="7"/>
@@ -15324,20 +15778,24 @@
       <c r="DE33" s="6"/>
       <c r="DF33" s="6"/>
       <c r="DG33" s="6"/>
+      <c r="DH33" s="6"/>
+      <c r="DI33" s="2"/>
+      <c r="DJ33" s="2"/>
+      <c r="DK33" s="2"/>
     </row>
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="3">
+      <c r="D34" s="8">
         <v>41970</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="3">
+      <c r="H34" s="8">
         <v>41995</v>
       </c>
       <c r="I34" s="7"/>
@@ -15446,10 +15904,14 @@
       <c r="DE34" s="6"/>
       <c r="DF34" s="6"/>
       <c r="DG34" s="6"/>
+      <c r="DH34" s="6"/>
+      <c r="DI34" s="6"/>
+      <c r="DJ34" s="6"/>
+      <c r="DK34" s="2"/>
     </row>
     <row r="35" ht="13.65" customHeight="1">
       <c r="A35" t="s" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -15484,17 +15946,17 @@
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="3">
+      <c r="AI35" s="8">
         <v>42243</v>
       </c>
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
-      <c r="AL35" s="3">
+      <c r="AL35" s="8">
         <v>42264</v>
       </c>
       <c r="AM35" s="6"/>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="3">
+      <c r="AO35" s="8">
         <v>42273</v>
       </c>
       <c r="AP35" s="6"/>
@@ -15503,7 +15965,7 @@
       <c r="AS35" s="6"/>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
-      <c r="AV35" s="3">
+      <c r="AV35" s="8">
         <v>42336</v>
       </c>
       <c r="AW35" s="2"/>
@@ -15511,10 +15973,10 @@
       <c r="AY35" s="6"/>
       <c r="AZ35" s="6"/>
       <c r="BA35" s="6"/>
-      <c r="BB35" s="3">
+      <c r="BB35" s="8">
         <v>42007</v>
       </c>
-      <c r="BC35" s="3">
+      <c r="BC35" s="8">
         <v>42418</v>
       </c>
       <c r="BD35" s="6"/>
@@ -15522,52 +15984,52 @@
       <c r="BF35" s="6"/>
       <c r="BG35" s="6"/>
       <c r="BH35" s="6"/>
-      <c r="BI35" s="3">
+      <c r="BI35" s="8">
         <v>42425</v>
       </c>
       <c r="BJ35" s="6"/>
-      <c r="BK35" s="3">
+      <c r="BK35" s="8">
         <v>42432</v>
       </c>
       <c r="BL35" s="7"/>
       <c r="BM35" s="7"/>
       <c r="BN35" s="7"/>
       <c r="BO35" s="7"/>
-      <c r="BP35" s="3">
+      <c r="BP35" s="8">
         <v>42481</v>
       </c>
       <c r="BQ35" s="7"/>
-      <c r="BR35" s="3">
+      <c r="BR35" s="8">
         <v>42484</v>
       </c>
       <c r="BS35" s="7"/>
       <c r="BT35" s="6"/>
       <c r="BU35" s="6"/>
-      <c r="BV35" s="8">
+      <c r="BV35" s="4">
         <v>42523</v>
       </c>
       <c r="BW35" s="6"/>
       <c r="BX35" s="6"/>
-      <c r="BY35" s="8">
+      <c r="BY35" s="4">
         <v>42544</v>
       </c>
       <c r="BZ35" s="6"/>
       <c r="CA35" s="6"/>
       <c r="CB35" s="2"/>
-      <c r="CC35" s="8">
+      <c r="CC35" s="4">
         <v>42545</v>
       </c>
       <c r="CD35" s="6"/>
       <c r="CE35" s="6"/>
       <c r="CF35" s="6"/>
       <c r="CG35" s="6"/>
-      <c r="CH35" s="8">
+      <c r="CH35" s="4">
         <v>42586</v>
       </c>
-      <c r="CI35" s="8">
+      <c r="CI35" s="4">
         <v>42593</v>
       </c>
-      <c r="CJ35" s="8">
+      <c r="CJ35" s="4">
         <v>42596</v>
       </c>
       <c r="CK35" s="2"/>
@@ -15580,33 +16042,40 @@
       <c r="CR35" s="7"/>
       <c r="CS35" s="7"/>
       <c r="CT35" s="7"/>
-      <c r="CU35" s="8">
+      <c r="CU35" s="4">
         <v>42712</v>
       </c>
       <c r="CV35" s="7"/>
       <c r="CW35" s="7"/>
       <c r="CX35" s="7"/>
-      <c r="CY35" s="8">
+      <c r="CY35" s="4">
         <v>42731</v>
       </c>
       <c r="CZ35" s="6"/>
       <c r="DA35" s="6"/>
-      <c r="DB35" s="8">
+      <c r="DB35" s="4">
         <v>42747</v>
       </c>
-      <c r="DC35" s="8">
+      <c r="DC35" s="4">
         <v>42747</v>
       </c>
       <c r="DD35" s="6"/>
       <c r="DE35" s="6"/>
-      <c r="DF35" s="8">
+      <c r="DF35" s="4">
         <v>42768</v>
       </c>
       <c r="DG35" s="6"/>
+      <c r="DH35" s="6"/>
+      <c r="DI35" s="2"/>
+      <c r="DJ35" s="2">
+        <f>5.38</f>
+        <v>5.38</v>
+      </c>
+      <c r="DK35" s="2"/>
     </row>
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -15648,7 +16117,7 @@
       <c r="AM36" s="7"/>
       <c r="AN36" s="7"/>
       <c r="AO36" s="7"/>
-      <c r="AP36" s="3">
+      <c r="AP36" s="8">
         <v>42282</v>
       </c>
       <c r="AQ36" s="7"/>
@@ -15706,7 +16175,7 @@
       <c r="CQ36" s="7"/>
       <c r="CR36" s="7"/>
       <c r="CS36" s="7">
-        <f t="shared" si="23" ref="CS36:CS40">5.38-5.5</f>
+        <f t="shared" si="25" ref="CS36:CS40">5.38-5.5</f>
         <v>-0.1200000000000001</v>
       </c>
       <c r="CT36" s="7"/>
@@ -15723,12 +16192,16 @@
       <c r="DE36" s="6"/>
       <c r="DF36" s="6"/>
       <c r="DG36" s="6"/>
+      <c r="DH36" s="6"/>
+      <c r="DI36" s="2"/>
+      <c r="DJ36" s="2"/>
+      <c r="DK36" s="2"/>
     </row>
     <row r="37" ht="13.65" customHeight="1">
       <c r="A37" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8">
         <v>41995</v>
       </c>
       <c r="C37" s="7"/>
@@ -15736,12 +16209,12 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="3">
+      <c r="H37" s="8">
         <v>41995</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="3">
+      <c r="K37" s="8">
         <v>42068</v>
       </c>
       <c r="L37" s="7"/>
@@ -15750,7 +16223,7 @@
       <c r="O37" s="6"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="3">
+      <c r="R37" s="8">
         <v>42166</v>
       </c>
       <c r="S37" s="2"/>
@@ -15765,14 +16238,14 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
-      <c r="AE37" s="3">
+      <c r="AE37" s="8">
         <v>42180</v>
       </c>
       <c r="AF37" s="7"/>
-      <c r="AG37" s="3">
+      <c r="AG37" s="8">
         <v>42187</v>
       </c>
-      <c r="AH37" s="3">
+      <c r="AH37" s="8">
         <v>42355</v>
       </c>
       <c r="AI37" s="2"/>
@@ -15793,18 +16266,18 @@
       <c r="AX37" s="6"/>
       <c r="AY37" s="6"/>
       <c r="AZ37" s="6"/>
-      <c r="BA37" s="3">
+      <c r="BA37" s="8">
         <v>42367</v>
       </c>
-      <c r="BB37" s="3">
+      <c r="BB37" s="8">
         <v>42383</v>
       </c>
       <c r="BC37" s="6"/>
-      <c r="BD37" s="3">
+      <c r="BD37" s="8">
         <v>42397</v>
       </c>
       <c r="BE37" s="6"/>
-      <c r="BF37" s="3">
+      <c r="BF37" s="8">
         <v>42466</v>
       </c>
       <c r="BG37" s="6"/>
@@ -15844,7 +16317,7 @@
       <c r="CO37" s="7"/>
       <c r="CP37" s="7"/>
       <c r="CQ37" s="2"/>
-      <c r="CR37" s="8">
+      <c r="CR37" s="4">
         <v>42719</v>
       </c>
       <c r="CS37" s="2"/>
@@ -15854,9 +16327,8 @@
       <c r="CW37" s="2"/>
       <c r="CX37" s="2"/>
       <c r="CY37" s="6"/>
-      <c r="CZ37" s="2">
-        <f>3.26+4.64+1.45+1</f>
-        <v>10.35</v>
+      <c r="CZ37" s="4">
+        <v>42803</v>
       </c>
       <c r="DA37" s="6"/>
       <c r="DB37" s="6"/>
@@ -15865,161 +16337,168 @@
       <c r="DE37" s="6"/>
       <c r="DF37" s="6"/>
       <c r="DG37" s="6"/>
+      <c r="DH37" s="6"/>
+      <c r="DI37" s="6"/>
+      <c r="DJ37" s="6"/>
+      <c r="DK37" s="2">
+        <f>10.35+5.38</f>
+        <v>15.73</v>
+      </c>
     </row>
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="3">
+      <c r="C38" s="8">
         <v>41977</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="3">
+      <c r="E38" s="8">
         <v>41977</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="8">
         <v>42026</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="3">
+      <c r="K38" s="8">
         <v>42026</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="8">
         <v>42048</v>
       </c>
       <c r="M38" s="7"/>
-      <c r="N38" s="3">
+      <c r="N38" s="8">
         <v>42048</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="8">
         <v>42082</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="3">
+      <c r="T38" s="8">
         <v>42096</v>
       </c>
       <c r="U38" s="2"/>
-      <c r="V38" s="3">
+      <c r="V38" s="8">
         <v>42117</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="3">
+      <c r="Y38" s="8">
         <v>42124</v>
       </c>
       <c r="Z38" s="7"/>
-      <c r="AA38" s="3">
+      <c r="AA38" s="8">
         <v>42131</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AB38" s="8">
         <v>42152</v>
       </c>
-      <c r="AC38" s="3">
+      <c r="AC38" s="8">
         <v>42159</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AD38" s="8">
         <v>42166</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AE38" s="8">
         <v>42180</v>
       </c>
       <c r="AF38" s="7"/>
-      <c r="AG38" s="3">
+      <c r="AG38" s="8">
         <v>42201</v>
       </c>
       <c r="AH38" s="7"/>
-      <c r="AI38" s="3">
+      <c r="AI38" s="8">
         <v>42236</v>
       </c>
       <c r="AJ38" s="7"/>
-      <c r="AK38" s="3">
+      <c r="AK38" s="8">
         <v>42250</v>
       </c>
       <c r="AL38" s="2"/>
-      <c r="AM38" s="3">
+      <c r="AM38" s="8">
         <v>42257</v>
       </c>
-      <c r="AN38" s="3">
+      <c r="AN38" s="8">
         <v>42264</v>
       </c>
-      <c r="AO38" s="3">
+      <c r="AO38" s="8">
         <v>42292</v>
       </c>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
-      <c r="AR38" s="3">
+      <c r="AR38" s="8">
         <v>42299</v>
       </c>
-      <c r="AS38" s="3">
+      <c r="AS38" s="8">
         <v>42325</v>
       </c>
       <c r="AT38" s="7"/>
       <c r="AU38" s="2"/>
       <c r="AV38" s="7"/>
-      <c r="AW38" s="3">
+      <c r="AW38" s="8">
         <v>42341</v>
       </c>
       <c r="AX38" s="7"/>
-      <c r="AY38" s="3">
+      <c r="AY38" s="8">
         <v>42355</v>
       </c>
       <c r="AZ38" s="6"/>
-      <c r="BA38" s="3">
+      <c r="BA38" s="8">
         <v>42376</v>
       </c>
       <c r="BB38" s="7"/>
-      <c r="BC38" s="3">
+      <c r="BC38" s="8">
         <v>42390</v>
       </c>
       <c r="BD38" s="6"/>
-      <c r="BE38" s="3">
+      <c r="BE38" s="8">
         <v>42397</v>
       </c>
-      <c r="BF38" s="3">
+      <c r="BF38" s="8">
         <v>42404</v>
       </c>
-      <c r="BG38" s="3">
+      <c r="BG38" s="8">
         <v>42418</v>
       </c>
       <c r="BH38" s="6"/>
-      <c r="BI38" s="3">
+      <c r="BI38" s="8">
         <v>42425</v>
       </c>
-      <c r="BJ38" s="3">
+      <c r="BJ38" s="8">
         <v>42432</v>
       </c>
-      <c r="BK38" s="3">
+      <c r="BK38" s="8">
         <v>42439</v>
       </c>
-      <c r="BL38" s="3">
+      <c r="BL38" s="8">
         <v>42446</v>
       </c>
-      <c r="BM38" s="3">
+      <c r="BM38" s="8">
         <v>42453</v>
       </c>
-      <c r="BN38" s="3">
+      <c r="BN38" s="8">
         <v>42467</v>
       </c>
       <c r="BO38" s="7"/>
-      <c r="BP38" s="3">
+      <c r="BP38" s="8">
         <v>42474</v>
       </c>
-      <c r="BQ38" s="3">
+      <c r="BQ38" s="8">
         <v>42481</v>
       </c>
-      <c r="BR38" s="3">
+      <c r="BR38" s="8">
         <v>42495</v>
       </c>
       <c r="BS38" s="7"/>
       <c r="BT38" s="6"/>
-      <c r="BU38" s="3">
+      <c r="BU38" s="8">
         <v>42509</v>
       </c>
       <c r="BV38" s="6"/>
@@ -16032,26 +16511,26 @@
       <c r="BZ38" s="6"/>
       <c r="CA38" s="6"/>
       <c r="CB38" s="2"/>
-      <c r="CC38" s="8">
+      <c r="CC38" s="4">
         <v>42558</v>
       </c>
       <c r="CD38" s="6"/>
       <c r="CE38" s="6"/>
-      <c r="CF38" s="8">
+      <c r="CF38" s="4">
         <v>42572</v>
       </c>
       <c r="CG38" s="6"/>
-      <c r="CH38" s="8">
+      <c r="CH38" s="4">
         <v>42593</v>
       </c>
       <c r="CI38" s="6"/>
-      <c r="CJ38" s="8">
+      <c r="CJ38" s="4">
         <v>42628</v>
       </c>
       <c r="CK38" s="2"/>
       <c r="CL38" s="2"/>
       <c r="CM38" s="2"/>
-      <c r="CN38" s="8">
+      <c r="CN38" s="4">
         <v>42670</v>
       </c>
       <c r="CO38" s="2"/>
@@ -16059,41 +16538,47 @@
       <c r="CQ38" s="2"/>
       <c r="CR38" s="2"/>
       <c r="CS38" s="2"/>
-      <c r="CT38" s="8">
+      <c r="CT38" s="4">
         <v>42702</v>
       </c>
       <c r="CU38" s="2"/>
       <c r="CV38" s="2"/>
-      <c r="CW38" s="8">
+      <c r="CW38" s="4">
         <v>42705</v>
       </c>
-      <c r="CX38" s="8">
+      <c r="CX38" s="4">
         <v>42719</v>
       </c>
       <c r="CY38" s="6"/>
-      <c r="CZ38" s="8">
+      <c r="CZ38" s="4">
         <v>42740</v>
       </c>
       <c r="DA38" s="6"/>
-      <c r="DB38" s="8">
+      <c r="DB38" s="4">
         <v>42754</v>
       </c>
       <c r="DC38" s="6"/>
-      <c r="DD38" s="8">
+      <c r="DD38" s="4">
         <v>42761</v>
       </c>
-      <c r="DE38" s="8">
+      <c r="DE38" s="4">
         <v>42775</v>
       </c>
       <c r="DF38" s="6"/>
-      <c r="DG38" s="2">
-        <f>21.71+5.38</f>
-        <v>27.09</v>
+      <c r="DG38" s="4">
+        <v>42803</v>
+      </c>
+      <c r="DH38" s="6"/>
+      <c r="DI38" s="6"/>
+      <c r="DJ38" s="6"/>
+      <c r="DK38" s="2">
+        <f>2.09+5.38</f>
+        <v>7.47</v>
       </c>
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -16155,12 +16640,12 @@
       <c r="BG39" s="7"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
-      <c r="BJ39" s="3">
+      <c r="BJ39" s="8">
         <v>42432</v>
       </c>
       <c r="BK39" s="7"/>
       <c r="BL39" s="7"/>
-      <c r="BM39" s="3">
+      <c r="BM39" s="8">
         <v>42466</v>
       </c>
       <c r="BN39" s="7"/>
@@ -16211,10 +16696,14 @@
       <c r="DE39" s="6"/>
       <c r="DF39" s="6"/>
       <c r="DG39" s="6"/>
+      <c r="DH39" s="6"/>
+      <c r="DI39" s="6"/>
+      <c r="DJ39" s="6"/>
+      <c r="DK39" s="2"/>
     </row>
     <row r="40" ht="13.65" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -16312,7 +16801,7 @@
       <c r="CQ40" s="6"/>
       <c r="CR40" s="6"/>
       <c r="CS40" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-0.1200000000000001</v>
       </c>
       <c r="CT40" s="6"/>
@@ -16329,10 +16818,14 @@
       <c r="DE40" s="6"/>
       <c r="DF40" s="6"/>
       <c r="DG40" s="6"/>
+      <c r="DH40" s="6"/>
+      <c r="DI40" s="2"/>
+      <c r="DJ40" s="2"/>
+      <c r="DK40" s="2"/>
     </row>
     <row r="41" ht="13.65" customHeight="1">
       <c r="A41" t="s" s="5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -16447,10 +16940,14 @@
       <c r="DE41" s="6"/>
       <c r="DF41" s="6"/>
       <c r="DG41" s="6"/>
+      <c r="DH41" s="6"/>
+      <c r="DI41" s="6"/>
+      <c r="DJ41" s="6"/>
+      <c r="DK41" s="2"/>
     </row>
     <row r="42" ht="13.65" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -16560,10 +17057,14 @@
       <c r="DC42" s="6"/>
       <c r="DD42" s="6"/>
       <c r="DE42" s="6"/>
-      <c r="DF42" s="8">
+      <c r="DF42" s="4">
         <v>42769</v>
       </c>
       <c r="DG42" s="6"/>
+      <c r="DH42" s="6"/>
+      <c r="DI42" s="2"/>
+      <c r="DJ42" s="2"/>
+      <c r="DK42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
